--- a/Lesson3.xlsx
+++ b/Lesson3.xlsx
@@ -411,16 +411,16 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row spans="1:4" r="1">
-      <c r="A1" s="1" t="s">
+      <c s="1" r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c s="1" r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c s="1" r="D1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -434,7 +434,7 @@
       <c r="C2" t="n">
         <v>62</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c s="3" r="D2" t="n">
         <v>39818</v>
       </c>
     </row>
@@ -448,7 +448,7 @@
       <c r="C3" t="n">
         <v>260</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c s="3" r="D3" t="n">
         <v>39825</v>
       </c>
     </row>
@@ -462,7 +462,7 @@
       <c r="C4" t="n">
         <v>933</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c s="3" r="D4" t="n">
         <v>39832</v>
       </c>
     </row>
@@ -476,7 +476,7 @@
       <c r="C5" t="n">
         <v>97</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c s="3" r="D5" t="n">
         <v>39839</v>
       </c>
     </row>
@@ -490,7 +490,7 @@
       <c r="C6" t="n">
         <v>792</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c s="3" r="D6" t="n">
         <v>39846</v>
       </c>
     </row>
@@ -504,7 +504,7 @@
       <c r="C7" t="n">
         <v>930</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c s="3" r="D7" t="n">
         <v>39853</v>
       </c>
     </row>
@@ -518,7 +518,7 @@
       <c r="C8" t="n">
         <v>740</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c s="3" r="D8" t="n">
         <v>39860</v>
       </c>
     </row>
@@ -532,7 +532,7 @@
       <c r="C9" t="n">
         <v>670</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c s="3" r="D9" t="n">
         <v>39867</v>
       </c>
     </row>
@@ -546,7 +546,7 @@
       <c r="C10" t="n">
         <v>872</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c s="3" r="D10" t="n">
         <v>39874</v>
       </c>
     </row>
@@ -560,7 +560,7 @@
       <c r="C11" t="n">
         <v>985</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c s="3" r="D11" t="n">
         <v>39881</v>
       </c>
     </row>
@@ -574,7 +574,7 @@
       <c r="C12" t="n">
         <v>169</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c s="3" r="D12" t="n">
         <v>39888</v>
       </c>
     </row>
@@ -588,7 +588,7 @@
       <c r="C13" t="n">
         <v>154</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c s="3" r="D13" t="n">
         <v>39895</v>
       </c>
     </row>
@@ -602,7 +602,7 @@
       <c r="C14" t="n">
         <v>997</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c s="3" r="D14" t="n">
         <v>39902</v>
       </c>
     </row>
@@ -616,7 +616,7 @@
       <c r="C15" t="n">
         <v>608</v>
       </c>
-      <c r="D15" s="3" t="n">
+      <c s="3" r="D15" t="n">
         <v>39909</v>
       </c>
     </row>
@@ -630,7 +630,7 @@
       <c r="C16" t="n">
         <v>774</v>
       </c>
-      <c r="D16" s="3" t="n">
+      <c s="3" r="D16" t="n">
         <v>39916</v>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="C17" t="n">
         <v>533</v>
       </c>
-      <c r="D17" s="3" t="n">
+      <c s="3" r="D17" t="n">
         <v>39923</v>
       </c>
     </row>
@@ -658,7 +658,7 @@
       <c r="C18" t="n">
         <v>415</v>
       </c>
-      <c r="D18" s="3" t="n">
+      <c s="3" r="D18" t="n">
         <v>39930</v>
       </c>
     </row>
@@ -672,7 +672,7 @@
       <c r="C19" t="n">
         <v>306</v>
       </c>
-      <c r="D19" s="3" t="n">
+      <c s="3" r="D19" t="n">
         <v>39937</v>
       </c>
     </row>
@@ -686,7 +686,7 @@
       <c r="C20" t="n">
         <v>203</v>
       </c>
-      <c r="D20" s="3" t="n">
+      <c s="3" r="D20" t="n">
         <v>39944</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
       <c r="C21" t="n">
         <v>301</v>
       </c>
-      <c r="D21" s="3" t="n">
+      <c s="3" r="D21" t="n">
         <v>39951</v>
       </c>
     </row>
@@ -714,7 +714,7 @@
       <c r="C22" t="n">
         <v>279</v>
       </c>
-      <c r="D22" s="3" t="n">
+      <c s="3" r="D22" t="n">
         <v>39958</v>
       </c>
     </row>
@@ -728,7 +728,7 @@
       <c r="C23" t="n">
         <v>382</v>
       </c>
-      <c r="D23" s="3" t="n">
+      <c s="3" r="D23" t="n">
         <v>39965</v>
       </c>
     </row>
@@ -742,7 +742,7 @@
       <c r="C24" t="n">
         <v>939</v>
       </c>
-      <c r="D24" s="3" t="n">
+      <c s="3" r="D24" t="n">
         <v>39972</v>
       </c>
     </row>
@@ -756,7 +756,7 @@
       <c r="C25" t="n">
         <v>493</v>
       </c>
-      <c r="D25" s="3" t="n">
+      <c s="3" r="D25" t="n">
         <v>39979</v>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="C26" t="n">
         <v>932</v>
       </c>
-      <c r="D26" s="3" t="n">
+      <c s="3" r="D26" t="n">
         <v>39986</v>
       </c>
     </row>
@@ -784,7 +784,7 @@
       <c r="C27" t="n">
         <v>277</v>
       </c>
-      <c r="D27" s="3" t="n">
+      <c s="3" r="D27" t="n">
         <v>39993</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
       <c r="C28" t="n">
         <v>515</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c s="3" r="D28" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -812,7 +812,7 @@
       <c r="C29" t="n">
         <v>693</v>
       </c>
-      <c r="D29" s="3" t="n">
+      <c s="3" r="D29" t="n">
         <v>40007</v>
       </c>
     </row>
@@ -826,7 +826,7 @@
       <c r="C30" t="n">
         <v>950</v>
       </c>
-      <c r="D30" s="3" t="n">
+      <c s="3" r="D30" t="n">
         <v>40014</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
       <c r="C31" t="n">
         <v>423</v>
       </c>
-      <c r="D31" s="3" t="n">
+      <c s="3" r="D31" t="n">
         <v>40021</v>
       </c>
     </row>
@@ -854,7 +854,7 @@
       <c r="C32" t="n">
         <v>587</v>
       </c>
-      <c r="D32" s="3" t="n">
+      <c s="3" r="D32" t="n">
         <v>40028</v>
       </c>
     </row>
@@ -868,7 +868,7 @@
       <c r="C33" t="n">
         <v>605</v>
       </c>
-      <c r="D33" s="3" t="n">
+      <c s="3" r="D33" t="n">
         <v>40035</v>
       </c>
     </row>
@@ -882,7 +882,7 @@
       <c r="C34" t="n">
         <v>240</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c s="3" r="D34" t="n">
         <v>40042</v>
       </c>
     </row>
@@ -896,7 +896,7 @@
       <c r="C35" t="n">
         <v>778</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c s="3" r="D35" t="n">
         <v>40049</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
       <c r="C36" t="n">
         <v>528</v>
       </c>
-      <c r="D36" s="3" t="n">
+      <c s="3" r="D36" t="n">
         <v>40056</v>
       </c>
     </row>
@@ -924,7 +924,7 @@
       <c r="C37" t="n">
         <v>503</v>
       </c>
-      <c r="D37" s="3" t="n">
+      <c s="3" r="D37" t="n">
         <v>40063</v>
       </c>
     </row>
@@ -938,7 +938,7 @@
       <c r="C38" t="n">
         <v>889</v>
       </c>
-      <c r="D38" s="3" t="n">
+      <c s="3" r="D38" t="n">
         <v>40070</v>
       </c>
     </row>
@@ -952,7 +952,7 @@
       <c r="C39" t="n">
         <v>111</v>
       </c>
-      <c r="D39" s="3" t="n">
+      <c s="3" r="D39" t="n">
         <v>40077</v>
       </c>
     </row>
@@ -966,7 +966,7 @@
       <c r="C40" t="n">
         <v>166</v>
       </c>
-      <c r="D40" s="3" t="n">
+      <c s="3" r="D40" t="n">
         <v>40084</v>
       </c>
     </row>
@@ -980,7 +980,7 @@
       <c r="C41" t="n">
         <v>418</v>
       </c>
-      <c r="D41" s="3" t="n">
+      <c s="3" r="D41" t="n">
         <v>40091</v>
       </c>
     </row>
@@ -994,7 +994,7 @@
       <c r="C42" t="n">
         <v>32</v>
       </c>
-      <c r="D42" s="3" t="n">
+      <c s="3" r="D42" t="n">
         <v>40098</v>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       <c r="C43" t="n">
         <v>344</v>
       </c>
-      <c r="D43" s="3" t="n">
+      <c s="3" r="D43" t="n">
         <v>40105</v>
       </c>
     </row>
@@ -1022,7 +1022,7 @@
       <c r="C44" t="n">
         <v>854</v>
       </c>
-      <c r="D44" s="3" t="n">
+      <c s="3" r="D44" t="n">
         <v>40112</v>
       </c>
     </row>
@@ -1036,7 +1036,7 @@
       <c r="C45" t="n">
         <v>559</v>
       </c>
-      <c r="D45" s="3" t="n">
+      <c s="3" r="D45" t="n">
         <v>40119</v>
       </c>
     </row>
@@ -1050,7 +1050,7 @@
       <c r="C46" t="n">
         <v>338</v>
       </c>
-      <c r="D46" s="3" t="n">
+      <c s="3" r="D46" t="n">
         <v>40126</v>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       <c r="C47" t="n">
         <v>538</v>
       </c>
-      <c r="D47" s="3" t="n">
+      <c s="3" r="D47" t="n">
         <v>40133</v>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       <c r="C48" t="n">
         <v>921</v>
       </c>
-      <c r="D48" s="3" t="n">
+      <c s="3" r="D48" t="n">
         <v>40140</v>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       <c r="C49" t="n">
         <v>341</v>
       </c>
-      <c r="D49" s="3" t="n">
+      <c s="3" r="D49" t="n">
         <v>40147</v>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       <c r="C50" t="n">
         <v>234</v>
       </c>
-      <c r="D50" s="3" t="n">
+      <c s="3" r="D50" t="n">
         <v>40154</v>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       <c r="C51" t="n">
         <v>289</v>
       </c>
-      <c r="D51" s="3" t="n">
+      <c s="3" r="D51" t="n">
         <v>40161</v>
       </c>
     </row>
@@ -1134,7 +1134,7 @@
       <c r="C52" t="n">
         <v>753</v>
       </c>
-      <c r="D52" s="3" t="n">
+      <c s="3" r="D52" t="n">
         <v>40168</v>
       </c>
     </row>
@@ -1148,7 +1148,7 @@
       <c r="C53" t="n">
         <v>678</v>
       </c>
-      <c r="D53" s="3" t="n">
+      <c s="3" r="D53" t="n">
         <v>40175</v>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       <c r="C54" t="n">
         <v>652</v>
       </c>
-      <c r="D54" s="3" t="n">
+      <c s="3" r="D54" t="n">
         <v>40182</v>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="C55" t="n">
         <v>456</v>
       </c>
-      <c r="D55" s="3" t="n">
+      <c s="3" r="D55" t="n">
         <v>40189</v>
       </c>
     </row>
@@ -1190,7 +1190,7 @@
       <c r="C56" t="n">
         <v>658</v>
       </c>
-      <c r="D56" s="3" t="n">
+      <c s="3" r="D56" t="n">
         <v>40196</v>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       <c r="C57" t="n">
         <v>481</v>
       </c>
-      <c r="D57" s="3" t="n">
+      <c s="3" r="D57" t="n">
         <v>40203</v>
       </c>
     </row>
@@ -1218,7 +1218,7 @@
       <c r="C58" t="n">
         <v>567</v>
       </c>
-      <c r="D58" s="3" t="n">
+      <c s="3" r="D58" t="n">
         <v>40210</v>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       <c r="C59" t="n">
         <v>96</v>
       </c>
-      <c r="D59" s="3" t="n">
+      <c s="3" r="D59" t="n">
         <v>40217</v>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       <c r="C60" t="n">
         <v>412</v>
       </c>
-      <c r="D60" s="3" t="n">
+      <c s="3" r="D60" t="n">
         <v>40224</v>
       </c>
     </row>
@@ -1260,7 +1260,7 @@
       <c r="C61" t="n">
         <v>479</v>
       </c>
-      <c r="D61" s="3" t="n">
+      <c s="3" r="D61" t="n">
         <v>40231</v>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       <c r="C62" t="n">
         <v>942</v>
       </c>
-      <c r="D62" s="3" t="n">
+      <c s="3" r="D62" t="n">
         <v>40238</v>
       </c>
     </row>
@@ -1288,7 +1288,7 @@
       <c r="C63" t="n">
         <v>586</v>
       </c>
-      <c r="D63" s="3" t="n">
+      <c s="3" r="D63" t="n">
         <v>40245</v>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       <c r="C64" t="n">
         <v>338</v>
       </c>
-      <c r="D64" s="3" t="n">
+      <c s="3" r="D64" t="n">
         <v>40252</v>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       <c r="C65" t="n">
         <v>540</v>
       </c>
-      <c r="D65" s="3" t="n">
+      <c s="3" r="D65" t="n">
         <v>40259</v>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       <c r="C66" t="n">
         <v>989</v>
       </c>
-      <c r="D66" s="3" t="n">
+      <c s="3" r="D66" t="n">
         <v>40266</v>
       </c>
     </row>
@@ -1344,7 +1344,7 @@
       <c r="C67" t="n">
         <v>817</v>
       </c>
-      <c r="D67" s="3" t="n">
+      <c s="3" r="D67" t="n">
         <v>40273</v>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       <c r="C68" t="n">
         <v>522</v>
       </c>
-      <c r="D68" s="3" t="n">
+      <c s="3" r="D68" t="n">
         <v>40280</v>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       <c r="C69" t="n">
         <v>68</v>
       </c>
-      <c r="D69" s="3" t="n">
+      <c s="3" r="D69" t="n">
         <v>40287</v>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       <c r="C70" t="n">
         <v>613</v>
       </c>
-      <c r="D70" s="3" t="n">
+      <c s="3" r="D70" t="n">
         <v>40294</v>
       </c>
     </row>
@@ -1400,7 +1400,7 @@
       <c r="C71" t="n">
         <v>51</v>
       </c>
-      <c r="D71" s="3" t="n">
+      <c s="3" r="D71" t="n">
         <v>40301</v>
       </c>
     </row>
@@ -1414,7 +1414,7 @@
       <c r="C72" t="n">
         <v>845</v>
       </c>
-      <c r="D72" s="3" t="n">
+      <c s="3" r="D72" t="n">
         <v>40308</v>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       <c r="C73" t="n">
         <v>361</v>
       </c>
-      <c r="D73" s="3" t="n">
+      <c s="3" r="D73" t="n">
         <v>40315</v>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
       <c r="C74" t="n">
         <v>646</v>
       </c>
-      <c r="D74" s="3" t="n">
+      <c s="3" r="D74" t="n">
         <v>40322</v>
       </c>
     </row>
@@ -1456,7 +1456,7 @@
       <c r="C75" t="n">
         <v>908</v>
       </c>
-      <c r="D75" s="3" t="n">
+      <c s="3" r="D75" t="n">
         <v>40329</v>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
       <c r="C76" t="n">
         <v>322</v>
       </c>
-      <c r="D76" s="3" t="n">
+      <c s="3" r="D76" t="n">
         <v>40336</v>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       <c r="C77" t="n">
         <v>491</v>
       </c>
-      <c r="D77" s="3" t="n">
+      <c s="3" r="D77" t="n">
         <v>40343</v>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       <c r="C78" t="n">
         <v>40</v>
       </c>
-      <c r="D78" s="3" t="n">
+      <c s="3" r="D78" t="n">
         <v>40350</v>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="C79" t="n">
         <v>89</v>
       </c>
-      <c r="D79" s="3" t="n">
+      <c s="3" r="D79" t="n">
         <v>40357</v>
       </c>
     </row>
@@ -1526,7 +1526,7 @@
       <c r="C80" t="n">
         <v>221</v>
       </c>
-      <c r="D80" s="3" t="n">
+      <c s="3" r="D80" t="n">
         <v>40364</v>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
       <c r="C81" t="n">
         <v>50</v>
       </c>
-      <c r="D81" s="3" t="n">
+      <c s="3" r="D81" t="n">
         <v>40371</v>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="C82" t="n">
         <v>392</v>
       </c>
-      <c r="D82" s="3" t="n">
+      <c s="3" r="D82" t="n">
         <v>40378</v>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       <c r="C83" t="n">
         <v>763</v>
       </c>
-      <c r="D83" s="3" t="n">
+      <c s="3" r="D83" t="n">
         <v>40385</v>
       </c>
     </row>
@@ -1582,7 +1582,7 @@
       <c r="C84" t="n">
         <v>496</v>
       </c>
-      <c r="D84" s="3" t="n">
+      <c s="3" r="D84" t="n">
         <v>40392</v>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       <c r="C85" t="n">
         <v>928</v>
       </c>
-      <c r="D85" s="3" t="n">
+      <c s="3" r="D85" t="n">
         <v>40399</v>
       </c>
     </row>
@@ -1610,7 +1610,7 @@
       <c r="C86" t="n">
         <v>307</v>
       </c>
-      <c r="D86" s="3" t="n">
+      <c s="3" r="D86" t="n">
         <v>40406</v>
       </c>
     </row>
@@ -1624,7 +1624,7 @@
       <c r="C87" t="n">
         <v>690</v>
       </c>
-      <c r="D87" s="3" t="n">
+      <c s="3" r="D87" t="n">
         <v>40413</v>
       </c>
     </row>
@@ -1638,7 +1638,7 @@
       <c r="C88" t="n">
         <v>641</v>
       </c>
-      <c r="D88" s="3" t="n">
+      <c s="3" r="D88" t="n">
         <v>40420</v>
       </c>
     </row>
@@ -1652,7 +1652,7 @@
       <c r="C89" t="n">
         <v>47</v>
       </c>
-      <c r="D89" s="3" t="n">
+      <c s="3" r="D89" t="n">
         <v>40427</v>
       </c>
     </row>
@@ -1666,7 +1666,7 @@
       <c r="C90" t="n">
         <v>802</v>
       </c>
-      <c r="D90" s="3" t="n">
+      <c s="3" r="D90" t="n">
         <v>40434</v>
       </c>
     </row>
@@ -1680,7 +1680,7 @@
       <c r="C91" t="n">
         <v>732</v>
       </c>
-      <c r="D91" s="3" t="n">
+      <c s="3" r="D91" t="n">
         <v>40441</v>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       <c r="C92" t="n">
         <v>151</v>
       </c>
-      <c r="D92" s="3" t="n">
+      <c s="3" r="D92" t="n">
         <v>40448</v>
       </c>
     </row>
@@ -1708,7 +1708,7 @@
       <c r="C93" t="n">
         <v>304</v>
       </c>
-      <c r="D93" s="3" t="n">
+      <c s="3" r="D93" t="n">
         <v>40455</v>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       <c r="C94" t="n">
         <v>406</v>
       </c>
-      <c r="D94" s="3" t="n">
+      <c s="3" r="D94" t="n">
         <v>40462</v>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       <c r="C95" t="n">
         <v>381</v>
       </c>
-      <c r="D95" s="3" t="n">
+      <c s="3" r="D95" t="n">
         <v>40469</v>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       <c r="C96" t="n">
         <v>180</v>
       </c>
-      <c r="D96" s="3" t="n">
+      <c s="3" r="D96" t="n">
         <v>40476</v>
       </c>
     </row>
@@ -1764,7 +1764,7 @@
       <c r="C97" t="n">
         <v>958</v>
       </c>
-      <c r="D97" s="3" t="n">
+      <c s="3" r="D97" t="n">
         <v>40483</v>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       <c r="C98" t="n">
         <v>338</v>
       </c>
-      <c r="D98" s="3" t="n">
+      <c s="3" r="D98" t="n">
         <v>40490</v>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="C99" t="n">
         <v>620</v>
       </c>
-      <c r="D99" s="3" t="n">
+      <c s="3" r="D99" t="n">
         <v>40497</v>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       <c r="C100" t="n">
         <v>191</v>
       </c>
-      <c r="D100" s="3" t="n">
+      <c s="3" r="D100" t="n">
         <v>40504</v>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
       <c r="C101" t="n">
         <v>673</v>
       </c>
-      <c r="D101" s="3" t="n">
+      <c s="3" r="D101" t="n">
         <v>40511</v>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       <c r="C102" t="n">
         <v>313</v>
       </c>
-      <c r="D102" s="3" t="n">
+      <c s="3" r="D102" t="n">
         <v>40518</v>
       </c>
     </row>
@@ -1848,7 +1848,7 @@
       <c r="C103" t="n">
         <v>443</v>
       </c>
-      <c r="D103" s="3" t="n">
+      <c s="3" r="D103" t="n">
         <v>40525</v>
       </c>
     </row>
@@ -1862,7 +1862,7 @@
       <c r="C104" t="n">
         <v>803</v>
       </c>
-      <c r="D104" s="3" t="n">
+      <c s="3" r="D104" t="n">
         <v>40532</v>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       <c r="C105" t="n">
         <v>304</v>
       </c>
-      <c r="D105" s="3" t="n">
+      <c s="3" r="D105" t="n">
         <v>40539</v>
       </c>
     </row>
@@ -1890,7 +1890,7 @@
       <c r="C106" t="n">
         <v>680</v>
       </c>
-      <c r="D106" s="3" t="n">
+      <c s="3" r="D106" t="n">
         <v>40546</v>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       <c r="C107" t="n">
         <v>776</v>
       </c>
-      <c r="D107" s="3" t="n">
+      <c s="3" r="D107" t="n">
         <v>40553</v>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
       <c r="C108" t="n">
         <v>112</v>
       </c>
-      <c r="D108" s="3" t="n">
+      <c s="3" r="D108" t="n">
         <v>40560</v>
       </c>
     </row>
@@ -1932,7 +1932,7 @@
       <c r="C109" t="n">
         <v>818</v>
       </c>
-      <c r="D109" s="3" t="n">
+      <c s="3" r="D109" t="n">
         <v>40567</v>
       </c>
     </row>
@@ -1946,7 +1946,7 @@
       <c r="C110" t="n">
         <v>992</v>
       </c>
-      <c r="D110" s="3" t="n">
+      <c s="3" r="D110" t="n">
         <v>40574</v>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       <c r="C111" t="n">
         <v>268</v>
       </c>
-      <c r="D111" s="3" t="n">
+      <c s="3" r="D111" t="n">
         <v>40581</v>
       </c>
     </row>
@@ -1974,7 +1974,7 @@
       <c r="C112" t="n">
         <v>373</v>
       </c>
-      <c r="D112" s="3" t="n">
+      <c s="3" r="D112" t="n">
         <v>40588</v>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       <c r="C113" t="n">
         <v>611</v>
       </c>
-      <c r="D113" s="3" t="n">
+      <c s="3" r="D113" t="n">
         <v>40595</v>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
       <c r="C114" t="n">
         <v>215</v>
       </c>
-      <c r="D114" s="3" t="n">
+      <c s="3" r="D114" t="n">
         <v>40602</v>
       </c>
     </row>
@@ -2016,7 +2016,7 @@
       <c r="C115" t="n">
         <v>327</v>
       </c>
-      <c r="D115" s="3" t="n">
+      <c s="3" r="D115" t="n">
         <v>40609</v>
       </c>
     </row>
@@ -2030,7 +2030,7 @@
       <c r="C116" t="n">
         <v>953</v>
       </c>
-      <c r="D116" s="3" t="n">
+      <c s="3" r="D116" t="n">
         <v>40616</v>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       <c r="C117" t="n">
         <v>753</v>
       </c>
-      <c r="D117" s="3" t="n">
+      <c s="3" r="D117" t="n">
         <v>40623</v>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
       <c r="C118" t="n">
         <v>176</v>
       </c>
-      <c r="D118" s="3" t="n">
+      <c s="3" r="D118" t="n">
         <v>40630</v>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
       <c r="C119" t="n">
         <v>720</v>
       </c>
-      <c r="D119" s="3" t="n">
+      <c s="3" r="D119" t="n">
         <v>40637</v>
       </c>
     </row>
@@ -2086,7 +2086,7 @@
       <c r="C120" t="n">
         <v>346</v>
       </c>
-      <c r="D120" s="3" t="n">
+      <c s="3" r="D120" t="n">
         <v>40644</v>
       </c>
     </row>
@@ -2100,7 +2100,7 @@
       <c r="C121" t="n">
         <v>394</v>
       </c>
-      <c r="D121" s="3" t="n">
+      <c s="3" r="D121" t="n">
         <v>40651</v>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       <c r="C122" t="n">
         <v>870</v>
       </c>
-      <c r="D122" s="3" t="n">
+      <c s="3" r="D122" t="n">
         <v>40658</v>
       </c>
     </row>
@@ -2128,7 +2128,7 @@
       <c r="C123" t="n">
         <v>796</v>
       </c>
-      <c r="D123" s="3" t="n">
+      <c s="3" r="D123" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       <c r="C124" t="n">
         <v>921</v>
       </c>
-      <c r="D124" s="3" t="n">
+      <c s="3" r="D124" t="n">
         <v>40672</v>
       </c>
     </row>
@@ -2156,7 +2156,7 @@
       <c r="C125" t="n">
         <v>278</v>
       </c>
-      <c r="D125" s="3" t="n">
+      <c s="3" r="D125" t="n">
         <v>40679</v>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
       <c r="C126" t="n">
         <v>486</v>
       </c>
-      <c r="D126" s="3" t="n">
+      <c s="3" r="D126" t="n">
         <v>40686</v>
       </c>
     </row>
@@ -2184,7 +2184,7 @@
       <c r="C127" t="n">
         <v>799</v>
       </c>
-      <c r="D127" s="3" t="n">
+      <c s="3" r="D127" t="n">
         <v>40693</v>
       </c>
     </row>
@@ -2198,7 +2198,7 @@
       <c r="C128" t="n">
         <v>589</v>
       </c>
-      <c r="D128" s="3" t="n">
+      <c s="3" r="D128" t="n">
         <v>40700</v>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       <c r="C129" t="n">
         <v>494</v>
       </c>
-      <c r="D129" s="3" t="n">
+      <c s="3" r="D129" t="n">
         <v>40707</v>
       </c>
     </row>
@@ -2226,7 +2226,7 @@
       <c r="C130" t="n">
         <v>479</v>
       </c>
-      <c r="D130" s="3" t="n">
+      <c s="3" r="D130" t="n">
         <v>40714</v>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
       <c r="C131" t="n">
         <v>539</v>
       </c>
-      <c r="D131" s="3" t="n">
+      <c s="3" r="D131" t="n">
         <v>40721</v>
       </c>
     </row>
@@ -2254,7 +2254,7 @@
       <c r="C132" t="n">
         <v>613</v>
       </c>
-      <c r="D132" s="3" t="n">
+      <c s="3" r="D132" t="n">
         <v>40728</v>
       </c>
     </row>
@@ -2268,7 +2268,7 @@
       <c r="C133" t="n">
         <v>174</v>
       </c>
-      <c r="D133" s="3" t="n">
+      <c s="3" r="D133" t="n">
         <v>40735</v>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       <c r="C134" t="n">
         <v>740</v>
       </c>
-      <c r="D134" s="3" t="n">
+      <c s="3" r="D134" t="n">
         <v>40742</v>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       <c r="C135" t="n">
         <v>288</v>
       </c>
-      <c r="D135" s="3" t="n">
+      <c s="3" r="D135" t="n">
         <v>40749</v>
       </c>
     </row>
@@ -2310,7 +2310,7 @@
       <c r="C136" t="n">
         <v>102</v>
       </c>
-      <c r="D136" s="3" t="n">
+      <c s="3" r="D136" t="n">
         <v>40756</v>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       <c r="C137" t="n">
         <v>737</v>
       </c>
-      <c r="D137" s="3" t="n">
+      <c s="3" r="D137" t="n">
         <v>40763</v>
       </c>
     </row>
@@ -2338,7 +2338,7 @@
       <c r="C138" t="n">
         <v>100</v>
       </c>
-      <c r="D138" s="3" t="n">
+      <c s="3" r="D138" t="n">
         <v>40770</v>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
       <c r="C139" t="n">
         <v>357</v>
       </c>
-      <c r="D139" s="3" t="n">
+      <c s="3" r="D139" t="n">
         <v>40777</v>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
       <c r="C140" t="n">
         <v>68</v>
       </c>
-      <c r="D140" s="3" t="n">
+      <c s="3" r="D140" t="n">
         <v>40784</v>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
       <c r="C141" t="n">
         <v>557</v>
       </c>
-      <c r="D141" s="3" t="n">
+      <c s="3" r="D141" t="n">
         <v>40791</v>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       <c r="C142" t="n">
         <v>567</v>
       </c>
-      <c r="D142" s="3" t="n">
+      <c s="3" r="D142" t="n">
         <v>40798</v>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
       <c r="C143" t="n">
         <v>573</v>
       </c>
-      <c r="D143" s="3" t="n">
+      <c s="3" r="D143" t="n">
         <v>40805</v>
       </c>
     </row>
@@ -2422,7 +2422,7 @@
       <c r="C144" t="n">
         <v>896</v>
       </c>
-      <c r="D144" s="3" t="n">
+      <c s="3" r="D144" t="n">
         <v>40812</v>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
       <c r="C145" t="n">
         <v>800</v>
       </c>
-      <c r="D145" s="3" t="n">
+      <c s="3" r="D145" t="n">
         <v>40819</v>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       <c r="C146" t="n">
         <v>838</v>
       </c>
-      <c r="D146" s="3" t="n">
+      <c s="3" r="D146" t="n">
         <v>40826</v>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       <c r="C147" t="n">
         <v>989</v>
       </c>
-      <c r="D147" s="3" t="n">
+      <c s="3" r="D147" t="n">
         <v>40833</v>
       </c>
     </row>
@@ -2478,7 +2478,7 @@
       <c r="C148" t="n">
         <v>594</v>
       </c>
-      <c r="D148" s="3" t="n">
+      <c s="3" r="D148" t="n">
         <v>40840</v>
       </c>
     </row>
@@ -2492,7 +2492,7 @@
       <c r="C149" t="n">
         <v>777</v>
       </c>
-      <c r="D149" s="3" t="n">
+      <c s="3" r="D149" t="n">
         <v>40847</v>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       <c r="C150" t="n">
         <v>533</v>
       </c>
-      <c r="D150" s="3" t="n">
+      <c s="3" r="D150" t="n">
         <v>40854</v>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       <c r="C151" t="n">
         <v>235</v>
       </c>
-      <c r="D151" s="3" t="n">
+      <c s="3" r="D151" t="n">
         <v>40861</v>
       </c>
     </row>
@@ -2534,7 +2534,7 @@
       <c r="C152" t="n">
         <v>121</v>
       </c>
-      <c r="D152" s="3" t="n">
+      <c s="3" r="D152" t="n">
         <v>40868</v>
       </c>
     </row>
@@ -2548,7 +2548,7 @@
       <c r="C153" t="n">
         <v>294</v>
       </c>
-      <c r="D153" s="3" t="n">
+      <c s="3" r="D153" t="n">
         <v>40875</v>
       </c>
     </row>
@@ -2562,7 +2562,7 @@
       <c r="C154" t="n">
         <v>35</v>
       </c>
-      <c r="D154" s="3" t="n">
+      <c s="3" r="D154" t="n">
         <v>40882</v>
       </c>
     </row>
@@ -2576,7 +2576,7 @@
       <c r="C155" t="n">
         <v>304</v>
       </c>
-      <c r="D155" s="3" t="n">
+      <c s="3" r="D155" t="n">
         <v>40889</v>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
       <c r="C156" t="n">
         <v>917</v>
       </c>
-      <c r="D156" s="3" t="n">
+      <c s="3" r="D156" t="n">
         <v>40896</v>
       </c>
     </row>
@@ -2604,7 +2604,7 @@
       <c r="C157" t="n">
         <v>874</v>
       </c>
-      <c r="D157" s="3" t="n">
+      <c s="3" r="D157" t="n">
         <v>40903</v>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="C158" t="n">
         <v>928</v>
       </c>
-      <c r="D158" s="3" t="n">
+      <c s="3" r="D158" t="n">
         <v>40910</v>
       </c>
     </row>
@@ -2632,7 +2632,7 @@
       <c r="C159" t="n">
         <v>914</v>
       </c>
-      <c r="D159" s="3" t="n">
+      <c s="3" r="D159" t="n">
         <v>40917</v>
       </c>
     </row>
@@ -2646,7 +2646,7 @@
       <c r="C160" t="n">
         <v>177</v>
       </c>
-      <c r="D160" s="3" t="n">
+      <c s="3" r="D160" t="n">
         <v>40924</v>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       <c r="C161" t="n">
         <v>739</v>
       </c>
-      <c r="D161" s="3" t="n">
+      <c s="3" r="D161" t="n">
         <v>40931</v>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       <c r="C162" t="n">
         <v>501</v>
       </c>
-      <c r="D162" s="3" t="n">
+      <c s="3" r="D162" t="n">
         <v>40938</v>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       <c r="C163" t="n">
         <v>685</v>
       </c>
-      <c r="D163" s="3" t="n">
+      <c s="3" r="D163" t="n">
         <v>40945</v>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       <c r="C164" t="n">
         <v>441</v>
       </c>
-      <c r="D164" s="3" t="n">
+      <c s="3" r="D164" t="n">
         <v>40952</v>
       </c>
     </row>
@@ -2716,7 +2716,7 @@
       <c r="C165" t="n">
         <v>165</v>
       </c>
-      <c r="D165" s="3" t="n">
+      <c s="3" r="D165" t="n">
         <v>40959</v>
       </c>
     </row>
@@ -2730,7 +2730,7 @@
       <c r="C166" t="n">
         <v>218</v>
       </c>
-      <c r="D166" s="3" t="n">
+      <c s="3" r="D166" t="n">
         <v>40966</v>
       </c>
     </row>
@@ -2744,7 +2744,7 @@
       <c r="C167" t="n">
         <v>631</v>
       </c>
-      <c r="D167" s="3" t="n">
+      <c s="3" r="D167" t="n">
         <v>40973</v>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       <c r="C168" t="n">
         <v>597</v>
       </c>
-      <c r="D168" s="3" t="n">
+      <c s="3" r="D168" t="n">
         <v>40980</v>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
       <c r="C169" t="n">
         <v>514</v>
       </c>
-      <c r="D169" s="3" t="n">
+      <c s="3" r="D169" t="n">
         <v>40987</v>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       <c r="C170" t="n">
         <v>177</v>
       </c>
-      <c r="D170" s="3" t="n">
+      <c s="3" r="D170" t="n">
         <v>40994</v>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       <c r="C171" t="n">
         <v>363</v>
       </c>
-      <c r="D171" s="3" t="n">
+      <c s="3" r="D171" t="n">
         <v>41001</v>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       <c r="C172" t="n">
         <v>908</v>
       </c>
-      <c r="D172" s="3" t="n">
+      <c s="3" r="D172" t="n">
         <v>41008</v>
       </c>
     </row>
@@ -2828,7 +2828,7 @@
       <c r="C173" t="n">
         <v>890</v>
       </c>
-      <c r="D173" s="3" t="n">
+      <c s="3" r="D173" t="n">
         <v>41015</v>
       </c>
     </row>
@@ -2842,7 +2842,7 @@
       <c r="C174" t="n">
         <v>155</v>
       </c>
-      <c r="D174" s="3" t="n">
+      <c s="3" r="D174" t="n">
         <v>41022</v>
       </c>
     </row>
@@ -2856,7 +2856,7 @@
       <c r="C175" t="n">
         <v>517</v>
       </c>
-      <c r="D175" s="3" t="n">
+      <c s="3" r="D175" t="n">
         <v>41029</v>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       <c r="C176" t="n">
         <v>757</v>
       </c>
-      <c r="D176" s="3" t="n">
+      <c s="3" r="D176" t="n">
         <v>41036</v>
       </c>
     </row>
@@ -2884,7 +2884,7 @@
       <c r="C177" t="n">
         <v>640</v>
       </c>
-      <c r="D177" s="3" t="n">
+      <c s="3" r="D177" t="n">
         <v>41043</v>
       </c>
     </row>
@@ -2898,7 +2898,7 @@
       <c r="C178" t="n">
         <v>891</v>
       </c>
-      <c r="D178" s="3" t="n">
+      <c s="3" r="D178" t="n">
         <v>41050</v>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       <c r="C179" t="n">
         <v>291</v>
       </c>
-      <c r="D179" s="3" t="n">
+      <c s="3" r="D179" t="n">
         <v>41057</v>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
       <c r="C180" t="n">
         <v>719</v>
       </c>
-      <c r="D180" s="3" t="n">
+      <c s="3" r="D180" t="n">
         <v>41064</v>
       </c>
     </row>
@@ -2940,7 +2940,7 @@
       <c r="C181" t="n">
         <v>889</v>
       </c>
-      <c r="D181" s="3" t="n">
+      <c s="3" r="D181" t="n">
         <v>41071</v>
       </c>
     </row>
@@ -2954,7 +2954,7 @@
       <c r="C182" t="n">
         <v>514</v>
       </c>
-      <c r="D182" s="3" t="n">
+      <c s="3" r="D182" t="n">
         <v>41078</v>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
       <c r="C183" t="n">
         <v>875</v>
       </c>
-      <c r="D183" s="3" t="n">
+      <c s="3" r="D183" t="n">
         <v>41085</v>
       </c>
     </row>
@@ -2982,7 +2982,7 @@
       <c r="C184" t="n">
         <v>495</v>
       </c>
-      <c r="D184" s="3" t="n">
+      <c s="3" r="D184" t="n">
         <v>41092</v>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
       <c r="C185" t="n">
         <v>223</v>
       </c>
-      <c r="D185" s="3" t="n">
+      <c s="3" r="D185" t="n">
         <v>41099</v>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
       <c r="C186" t="n">
         <v>731</v>
       </c>
-      <c r="D186" s="3" t="n">
+      <c s="3" r="D186" t="n">
         <v>41106</v>
       </c>
     </row>
@@ -3024,7 +3024,7 @@
       <c r="C187" t="n">
         <v>352</v>
       </c>
-      <c r="D187" s="3" t="n">
+      <c s="3" r="D187" t="n">
         <v>41113</v>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       <c r="C188" t="n">
         <v>201</v>
       </c>
-      <c r="D188" s="3" t="n">
+      <c s="3" r="D188" t="n">
         <v>41120</v>
       </c>
     </row>
@@ -3052,7 +3052,7 @@
       <c r="C189" t="n">
         <v>591</v>
       </c>
-      <c r="D189" s="3" t="n">
+      <c s="3" r="D189" t="n">
         <v>41127</v>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
       <c r="C190" t="n">
         <v>40</v>
       </c>
-      <c r="D190" s="3" t="n">
+      <c s="3" r="D190" t="n">
         <v>41134</v>
       </c>
     </row>
@@ -3080,7 +3080,7 @@
       <c r="C191" t="n">
         <v>926</v>
       </c>
-      <c r="D191" s="3" t="n">
+      <c s="3" r="D191" t="n">
         <v>41141</v>
       </c>
     </row>
@@ -3094,7 +3094,7 @@
       <c r="C192" t="n">
         <v>426</v>
       </c>
-      <c r="D192" s="3" t="n">
+      <c s="3" r="D192" t="n">
         <v>41148</v>
       </c>
     </row>
@@ -3108,7 +3108,7 @@
       <c r="C193" t="n">
         <v>195</v>
       </c>
-      <c r="D193" s="3" t="n">
+      <c s="3" r="D193" t="n">
         <v>41155</v>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
       <c r="C194" t="n">
         <v>45</v>
       </c>
-      <c r="D194" s="3" t="n">
+      <c s="3" r="D194" t="n">
         <v>41162</v>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       <c r="C195" t="n">
         <v>655</v>
       </c>
-      <c r="D195" s="3" t="n">
+      <c s="3" r="D195" t="n">
         <v>41169</v>
       </c>
     </row>
@@ -3150,7 +3150,7 @@
       <c r="C196" t="n">
         <v>969</v>
       </c>
-      <c r="D196" s="3" t="n">
+      <c s="3" r="D196" t="n">
         <v>41176</v>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       <c r="C197" t="n">
         <v>303</v>
       </c>
-      <c r="D197" s="3" t="n">
+      <c s="3" r="D197" t="n">
         <v>41183</v>
       </c>
     </row>
@@ -3178,7 +3178,7 @@
       <c r="C198" t="n">
         <v>510</v>
       </c>
-      <c r="D198" s="3" t="n">
+      <c s="3" r="D198" t="n">
         <v>41190</v>
       </c>
     </row>
@@ -3192,7 +3192,7 @@
       <c r="C199" t="n">
         <v>934</v>
       </c>
-      <c r="D199" s="3" t="n">
+      <c s="3" r="D199" t="n">
         <v>41197</v>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       <c r="C200" t="n">
         <v>651</v>
       </c>
-      <c r="D200" s="3" t="n">
+      <c s="3" r="D200" t="n">
         <v>41204</v>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
       <c r="C201" t="n">
         <v>634</v>
       </c>
-      <c r="D201" s="3" t="n">
+      <c s="3" r="D201" t="n">
         <v>41211</v>
       </c>
     </row>
@@ -3234,7 +3234,7 @@
       <c r="C202" t="n">
         <v>718</v>
       </c>
-      <c r="D202" s="3" t="n">
+      <c s="3" r="D202" t="n">
         <v>41218</v>
       </c>
     </row>
@@ -3248,7 +3248,7 @@
       <c r="C203" t="n">
         <v>877</v>
       </c>
-      <c r="D203" s="3" t="n">
+      <c s="3" r="D203" t="n">
         <v>41225</v>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       <c r="C204" t="n">
         <v>35</v>
       </c>
-      <c r="D204" s="3" t="n">
+      <c s="3" r="D204" t="n">
         <v>41232</v>
       </c>
     </row>
@@ -3276,7 +3276,7 @@
       <c r="C205" t="n">
         <v>121</v>
       </c>
-      <c r="D205" s="3" t="n">
+      <c s="3" r="D205" t="n">
         <v>41239</v>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       <c r="C206" t="n">
         <v>208</v>
       </c>
-      <c r="D206" s="3" t="n">
+      <c s="3" r="D206" t="n">
         <v>41246</v>
       </c>
     </row>
@@ -3304,7 +3304,7 @@
       <c r="C207" t="n">
         <v>342</v>
       </c>
-      <c r="D207" s="3" t="n">
+      <c s="3" r="D207" t="n">
         <v>41253</v>
       </c>
     </row>
@@ -3318,7 +3318,7 @@
       <c r="C208" t="n">
         <v>593</v>
       </c>
-      <c r="D208" s="3" t="n">
+      <c s="3" r="D208" t="n">
         <v>41260</v>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
       <c r="C209" t="n">
         <v>754</v>
       </c>
-      <c r="D209" s="3" t="n">
+      <c s="3" r="D209" t="n">
         <v>41267</v>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="C210" t="n">
         <v>430</v>
       </c>
-      <c r="D210" s="3" t="n">
+      <c s="3" r="D210" t="n">
         <v>41274</v>
       </c>
     </row>
@@ -3360,7 +3360,7 @@
       <c r="C211" t="n">
         <v>633</v>
       </c>
-      <c r="D211" s="3" t="n">
+      <c s="3" r="D211" t="n">
         <v>39818</v>
       </c>
     </row>
@@ -3374,7 +3374,7 @@
       <c r="C212" t="n">
         <v>567</v>
       </c>
-      <c r="D212" s="3" t="n">
+      <c s="3" r="D212" t="n">
         <v>39825</v>
       </c>
     </row>
@@ -3388,7 +3388,7 @@
       <c r="C213" t="n">
         <v>175</v>
       </c>
-      <c r="D213" s="3" t="n">
+      <c s="3" r="D213" t="n">
         <v>39832</v>
       </c>
     </row>
@@ -3402,7 +3402,7 @@
       <c r="C214" t="n">
         <v>286</v>
       </c>
-      <c r="D214" s="3" t="n">
+      <c s="3" r="D214" t="n">
         <v>39839</v>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       <c r="C215" t="n">
         <v>500</v>
       </c>
-      <c r="D215" s="3" t="n">
+      <c s="3" r="D215" t="n">
         <v>39846</v>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
       <c r="C216" t="n">
         <v>120</v>
       </c>
-      <c r="D216" s="3" t="n">
+      <c s="3" r="D216" t="n">
         <v>39853</v>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
       <c r="C217" t="n">
         <v>386</v>
       </c>
-      <c r="D217" s="3" t="n">
+      <c s="3" r="D217" t="n">
         <v>39860</v>
       </c>
     </row>
@@ -3458,7 +3458,7 @@
       <c r="C218" t="n">
         <v>431</v>
       </c>
-      <c r="D218" s="3" t="n">
+      <c s="3" r="D218" t="n">
         <v>39867</v>
       </c>
     </row>
@@ -3472,7 +3472,7 @@
       <c r="C219" t="n">
         <v>741</v>
       </c>
-      <c r="D219" s="3" t="n">
+      <c s="3" r="D219" t="n">
         <v>39874</v>
       </c>
     </row>
@@ -3486,7 +3486,7 @@
       <c r="C220" t="n">
         <v>141</v>
       </c>
-      <c r="D220" s="3" t="n">
+      <c s="3" r="D220" t="n">
         <v>39881</v>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
       <c r="C221" t="n">
         <v>390</v>
       </c>
-      <c r="D221" s="3" t="n">
+      <c s="3" r="D221" t="n">
         <v>39888</v>
       </c>
     </row>
@@ -3514,7 +3514,7 @@
       <c r="C222" t="n">
         <v>47</v>
       </c>
-      <c r="D222" s="3" t="n">
+      <c s="3" r="D222" t="n">
         <v>39895</v>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
       <c r="C223" t="n">
         <v>427</v>
       </c>
-      <c r="D223" s="3" t="n">
+      <c s="3" r="D223" t="n">
         <v>39902</v>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       <c r="C224" t="n">
         <v>246</v>
       </c>
-      <c r="D224" s="3" t="n">
+      <c s="3" r="D224" t="n">
         <v>39909</v>
       </c>
     </row>
@@ -3556,7 +3556,7 @@
       <c r="C225" t="n">
         <v>310</v>
       </c>
-      <c r="D225" s="3" t="n">
+      <c s="3" r="D225" t="n">
         <v>39916</v>
       </c>
     </row>
@@ -3570,7 +3570,7 @@
       <c r="C226" t="n">
         <v>43</v>
       </c>
-      <c r="D226" s="3" t="n">
+      <c s="3" r="D226" t="n">
         <v>39923</v>
       </c>
     </row>
@@ -3584,7 +3584,7 @@
       <c r="C227" t="n">
         <v>77</v>
       </c>
-      <c r="D227" s="3" t="n">
+      <c s="3" r="D227" t="n">
         <v>39930</v>
       </c>
     </row>
@@ -3598,7 +3598,7 @@
       <c r="C228" t="n">
         <v>147</v>
       </c>
-      <c r="D228" s="3" t="n">
+      <c s="3" r="D228" t="n">
         <v>39937</v>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
       <c r="C229" t="n">
         <v>568</v>
       </c>
-      <c r="D229" s="3" t="n">
+      <c s="3" r="D229" t="n">
         <v>39944</v>
       </c>
     </row>
@@ -3626,7 +3626,7 @@
       <c r="C230" t="n">
         <v>330</v>
       </c>
-      <c r="D230" s="3" t="n">
+      <c s="3" r="D230" t="n">
         <v>39951</v>
       </c>
     </row>
@@ -3640,7 +3640,7 @@
       <c r="C231" t="n">
         <v>763</v>
       </c>
-      <c r="D231" s="3" t="n">
+      <c s="3" r="D231" t="n">
         <v>39958</v>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
       <c r="C232" t="n">
         <v>492</v>
       </c>
-      <c r="D232" s="3" t="n">
+      <c s="3" r="D232" t="n">
         <v>39965</v>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       <c r="C233" t="n">
         <v>402</v>
       </c>
-      <c r="D233" s="3" t="n">
+      <c s="3" r="D233" t="n">
         <v>39972</v>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       <c r="C234" t="n">
         <v>758</v>
       </c>
-      <c r="D234" s="3" t="n">
+      <c s="3" r="D234" t="n">
         <v>39979</v>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
       <c r="C235" t="n">
         <v>198</v>
       </c>
-      <c r="D235" s="3" t="n">
+      <c s="3" r="D235" t="n">
         <v>39986</v>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
       <c r="C236" t="n">
         <v>772</v>
       </c>
-      <c r="D236" s="3" t="n">
+      <c s="3" r="D236" t="n">
         <v>39993</v>
       </c>
     </row>
@@ -3724,7 +3724,7 @@
       <c r="C237" t="n">
         <v>972</v>
       </c>
-      <c r="D237" s="3" t="n">
+      <c s="3" r="D237" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       <c r="C238" t="n">
         <v>367</v>
       </c>
-      <c r="D238" s="3" t="n">
+      <c s="3" r="D238" t="n">
         <v>40007</v>
       </c>
     </row>
@@ -3752,7 +3752,7 @@
       <c r="C239" t="n">
         <v>808</v>
       </c>
-      <c r="D239" s="3" t="n">
+      <c s="3" r="D239" t="n">
         <v>40014</v>
       </c>
     </row>
@@ -3766,7 +3766,7 @@
       <c r="C240" t="n">
         <v>224</v>
       </c>
-      <c r="D240" s="3" t="n">
+      <c s="3" r="D240" t="n">
         <v>40021</v>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
       <c r="C241" t="n">
         <v>713</v>
       </c>
-      <c r="D241" s="3" t="n">
+      <c s="3" r="D241" t="n">
         <v>40028</v>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       <c r="C242" t="n">
         <v>437</v>
       </c>
-      <c r="D242" s="3" t="n">
+      <c s="3" r="D242" t="n">
         <v>40035</v>
       </c>
     </row>
@@ -3808,7 +3808,7 @@
       <c r="C243" t="n">
         <v>748</v>
       </c>
-      <c r="D243" s="3" t="n">
+      <c s="3" r="D243" t="n">
         <v>40042</v>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       <c r="C244" t="n">
         <v>820</v>
       </c>
-      <c r="D244" s="3" t="n">
+      <c s="3" r="D244" t="n">
         <v>40049</v>
       </c>
     </row>
@@ -3836,7 +3836,7 @@
       <c r="C245" t="n">
         <v>836</v>
       </c>
-      <c r="D245" s="3" t="n">
+      <c s="3" r="D245" t="n">
         <v>40056</v>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
       <c r="C246" t="n">
         <v>172</v>
       </c>
-      <c r="D246" s="3" t="n">
+      <c s="3" r="D246" t="n">
         <v>40063</v>
       </c>
     </row>
@@ -3864,7 +3864,7 @@
       <c r="C247" t="n">
         <v>616</v>
       </c>
-      <c r="D247" s="3" t="n">
+      <c s="3" r="D247" t="n">
         <v>40070</v>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
       <c r="C248" t="n">
         <v>863</v>
       </c>
-      <c r="D248" s="3" t="n">
+      <c s="3" r="D248" t="n">
         <v>40077</v>
       </c>
     </row>
@@ -3892,7 +3892,7 @@
       <c r="C249" t="n">
         <v>369</v>
       </c>
-      <c r="D249" s="3" t="n">
+      <c s="3" r="D249" t="n">
         <v>40084</v>
       </c>
     </row>
@@ -3906,7 +3906,7 @@
       <c r="C250" t="n">
         <v>239</v>
       </c>
-      <c r="D250" s="3" t="n">
+      <c s="3" r="D250" t="n">
         <v>40091</v>
       </c>
     </row>
@@ -3920,7 +3920,7 @@
       <c r="C251" t="n">
         <v>548</v>
       </c>
-      <c r="D251" s="3" t="n">
+      <c s="3" r="D251" t="n">
         <v>40098</v>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
       <c r="C252" t="n">
         <v>254</v>
       </c>
-      <c r="D252" s="3" t="n">
+      <c s="3" r="D252" t="n">
         <v>40105</v>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
       <c r="C253" t="n">
         <v>474</v>
       </c>
-      <c r="D253" s="3" t="n">
+      <c s="3" r="D253" t="n">
         <v>40112</v>
       </c>
     </row>
@@ -3962,7 +3962,7 @@
       <c r="C254" t="n">
         <v>630</v>
       </c>
-      <c r="D254" s="3" t="n">
+      <c s="3" r="D254" t="n">
         <v>40119</v>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
       <c r="C255" t="n">
         <v>296</v>
       </c>
-      <c r="D255" s="3" t="n">
+      <c s="3" r="D255" t="n">
         <v>40126</v>
       </c>
     </row>
@@ -3990,7 +3990,7 @@
       <c r="C256" t="n">
         <v>716</v>
       </c>
-      <c r="D256" s="3" t="n">
+      <c s="3" r="D256" t="n">
         <v>40133</v>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       <c r="C257" t="n">
         <v>879</v>
       </c>
-      <c r="D257" s="3" t="n">
+      <c s="3" r="D257" t="n">
         <v>40140</v>
       </c>
     </row>
@@ -4018,7 +4018,7 @@
       <c r="C258" t="n">
         <v>582</v>
       </c>
-      <c r="D258" s="3" t="n">
+      <c s="3" r="D258" t="n">
         <v>40147</v>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
       <c r="C259" t="n">
         <v>396</v>
       </c>
-      <c r="D259" s="3" t="n">
+      <c s="3" r="D259" t="n">
         <v>40154</v>
       </c>
     </row>
@@ -4046,7 +4046,7 @@
       <c r="C260" t="n">
         <v>472</v>
       </c>
-      <c r="D260" s="3" t="n">
+      <c s="3" r="D260" t="n">
         <v>40161</v>
       </c>
     </row>
@@ -4060,7 +4060,7 @@
       <c r="C261" t="n">
         <v>963</v>
       </c>
-      <c r="D261" s="3" t="n">
+      <c s="3" r="D261" t="n">
         <v>40168</v>
       </c>
     </row>
@@ -4074,7 +4074,7 @@
       <c r="C262" t="n">
         <v>687</v>
       </c>
-      <c r="D262" s="3" t="n">
+      <c s="3" r="D262" t="n">
         <v>40175</v>
       </c>
     </row>
@@ -4088,7 +4088,7 @@
       <c r="C263" t="n">
         <v>134</v>
       </c>
-      <c r="D263" s="3" t="n">
+      <c s="3" r="D263" t="n">
         <v>40182</v>
       </c>
     </row>
@@ -4102,7 +4102,7 @@
       <c r="C264" t="n">
         <v>640</v>
       </c>
-      <c r="D264" s="3" t="n">
+      <c s="3" r="D264" t="n">
         <v>40189</v>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       <c r="C265" t="n">
         <v>491</v>
       </c>
-      <c r="D265" s="3" t="n">
+      <c s="3" r="D265" t="n">
         <v>40196</v>
       </c>
     </row>
@@ -4130,7 +4130,7 @@
       <c r="C266" t="n">
         <v>193</v>
       </c>
-      <c r="D266" s="3" t="n">
+      <c s="3" r="D266" t="n">
         <v>40203</v>
       </c>
     </row>
@@ -4144,7 +4144,7 @@
       <c r="C267" t="n">
         <v>709</v>
       </c>
-      <c r="D267" s="3" t="n">
+      <c s="3" r="D267" t="n">
         <v>40210</v>
       </c>
     </row>
@@ -4158,7 +4158,7 @@
       <c r="C268" t="n">
         <v>937</v>
       </c>
-      <c r="D268" s="3" t="n">
+      <c s="3" r="D268" t="n">
         <v>40217</v>
       </c>
     </row>
@@ -4172,7 +4172,7 @@
       <c r="C269" t="n">
         <v>298</v>
       </c>
-      <c r="D269" s="3" t="n">
+      <c s="3" r="D269" t="n">
         <v>40224</v>
       </c>
     </row>
@@ -4186,7 +4186,7 @@
       <c r="C270" t="n">
         <v>900</v>
       </c>
-      <c r="D270" s="3" t="n">
+      <c s="3" r="D270" t="n">
         <v>40231</v>
       </c>
     </row>
@@ -4200,7 +4200,7 @@
       <c r="C271" t="n">
         <v>625</v>
       </c>
-      <c r="D271" s="3" t="n">
+      <c s="3" r="D271" t="n">
         <v>40238</v>
       </c>
     </row>
@@ -4214,7 +4214,7 @@
       <c r="C272" t="n">
         <v>255</v>
       </c>
-      <c r="D272" s="3" t="n">
+      <c s="3" r="D272" t="n">
         <v>40245</v>
       </c>
     </row>
@@ -4228,7 +4228,7 @@
       <c r="C273" t="n">
         <v>921</v>
       </c>
-      <c r="D273" s="3" t="n">
+      <c s="3" r="D273" t="n">
         <v>40252</v>
       </c>
     </row>
@@ -4242,7 +4242,7 @@
       <c r="C274" t="n">
         <v>265</v>
       </c>
-      <c r="D274" s="3" t="n">
+      <c s="3" r="D274" t="n">
         <v>40259</v>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       <c r="C275" t="n">
         <v>378</v>
       </c>
-      <c r="D275" s="3" t="n">
+      <c s="3" r="D275" t="n">
         <v>40266</v>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
       <c r="C276" t="n">
         <v>107</v>
       </c>
-      <c r="D276" s="3" t="n">
+      <c s="3" r="D276" t="n">
         <v>40273</v>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       <c r="C277" t="n">
         <v>912</v>
       </c>
-      <c r="D277" s="3" t="n">
+      <c s="3" r="D277" t="n">
         <v>40280</v>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
       <c r="C278" t="n">
         <v>992</v>
       </c>
-      <c r="D278" s="3" t="n">
+      <c s="3" r="D278" t="n">
         <v>40287</v>
       </c>
     </row>
@@ -4312,7 +4312,7 @@
       <c r="C279" t="n">
         <v>525</v>
       </c>
-      <c r="D279" s="3" t="n">
+      <c s="3" r="D279" t="n">
         <v>40294</v>
       </c>
     </row>
@@ -4326,7 +4326,7 @@
       <c r="C280" t="n">
         <v>39</v>
       </c>
-      <c r="D280" s="3" t="n">
+      <c s="3" r="D280" t="n">
         <v>40301</v>
       </c>
     </row>
@@ -4340,7 +4340,7 @@
       <c r="C281" t="n">
         <v>701</v>
       </c>
-      <c r="D281" s="3" t="n">
+      <c s="3" r="D281" t="n">
         <v>40308</v>
       </c>
     </row>
@@ -4354,7 +4354,7 @@
       <c r="C282" t="n">
         <v>51</v>
       </c>
-      <c r="D282" s="3" t="n">
+      <c s="3" r="D282" t="n">
         <v>40315</v>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       <c r="C283" t="n">
         <v>953</v>
       </c>
-      <c r="D283" s="3" t="n">
+      <c s="3" r="D283" t="n">
         <v>40322</v>
       </c>
     </row>
@@ -4382,7 +4382,7 @@
       <c r="C284" t="n">
         <v>922</v>
       </c>
-      <c r="D284" s="3" t="n">
+      <c s="3" r="D284" t="n">
         <v>40329</v>
       </c>
     </row>
@@ -4396,7 +4396,7 @@
       <c r="C285" t="n">
         <v>969</v>
       </c>
-      <c r="D285" s="3" t="n">
+      <c s="3" r="D285" t="n">
         <v>40336</v>
       </c>
     </row>
@@ -4410,7 +4410,7 @@
       <c r="C286" t="n">
         <v>369</v>
       </c>
-      <c r="D286" s="3" t="n">
+      <c s="3" r="D286" t="n">
         <v>40343</v>
       </c>
     </row>
@@ -4424,7 +4424,7 @@
       <c r="C287" t="n">
         <v>526</v>
       </c>
-      <c r="D287" s="3" t="n">
+      <c s="3" r="D287" t="n">
         <v>40350</v>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
       <c r="C288" t="n">
         <v>47</v>
       </c>
-      <c r="D288" s="3" t="n">
+      <c s="3" r="D288" t="n">
         <v>40357</v>
       </c>
     </row>
@@ -4452,7 +4452,7 @@
       <c r="C289" t="n">
         <v>827</v>
       </c>
-      <c r="D289" s="3" t="n">
+      <c s="3" r="D289" t="n">
         <v>40364</v>
       </c>
     </row>
@@ -4466,7 +4466,7 @@
       <c r="C290" t="n">
         <v>887</v>
       </c>
-      <c r="D290" s="3" t="n">
+      <c s="3" r="D290" t="n">
         <v>40371</v>
       </c>
     </row>
@@ -4480,7 +4480,7 @@
       <c r="C291" t="n">
         <v>558</v>
       </c>
-      <c r="D291" s="3" t="n">
+      <c s="3" r="D291" t="n">
         <v>40378</v>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
       <c r="C292" t="n">
         <v>221</v>
       </c>
-      <c r="D292" s="3" t="n">
+      <c s="3" r="D292" t="n">
         <v>40385</v>
       </c>
     </row>
@@ -4508,7 +4508,7 @@
       <c r="C293" t="n">
         <v>988</v>
       </c>
-      <c r="D293" s="3" t="n">
+      <c s="3" r="D293" t="n">
         <v>40392</v>
       </c>
     </row>
@@ -4522,7 +4522,7 @@
       <c r="C294" t="n">
         <v>713</v>
       </c>
-      <c r="D294" s="3" t="n">
+      <c s="3" r="D294" t="n">
         <v>40399</v>
       </c>
     </row>
@@ -4536,7 +4536,7 @@
       <c r="C295" t="n">
         <v>143</v>
       </c>
-      <c r="D295" s="3" t="n">
+      <c s="3" r="D295" t="n">
         <v>40406</v>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
       <c r="C296" t="n">
         <v>171</v>
       </c>
-      <c r="D296" s="3" t="n">
+      <c s="3" r="D296" t="n">
         <v>40413</v>
       </c>
     </row>
@@ -4564,7 +4564,7 @@
       <c r="C297" t="n">
         <v>378</v>
       </c>
-      <c r="D297" s="3" t="n">
+      <c s="3" r="D297" t="n">
         <v>40420</v>
       </c>
     </row>
@@ -4578,7 +4578,7 @@
       <c r="C298" t="n">
         <v>676</v>
       </c>
-      <c r="D298" s="3" t="n">
+      <c s="3" r="D298" t="n">
         <v>40427</v>
       </c>
     </row>
@@ -4592,7 +4592,7 @@
       <c r="C299" t="n">
         <v>676</v>
       </c>
-      <c r="D299" s="3" t="n">
+      <c s="3" r="D299" t="n">
         <v>40434</v>
       </c>
     </row>
@@ -4606,7 +4606,7 @@
       <c r="C300" t="n">
         <v>402</v>
       </c>
-      <c r="D300" s="3" t="n">
+      <c s="3" r="D300" t="n">
         <v>40441</v>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
       <c r="C301" t="n">
         <v>461</v>
       </c>
-      <c r="D301" s="3" t="n">
+      <c s="3" r="D301" t="n">
         <v>40448</v>
       </c>
     </row>
@@ -4634,7 +4634,7 @@
       <c r="C302" t="n">
         <v>869</v>
       </c>
-      <c r="D302" s="3" t="n">
+      <c s="3" r="D302" t="n">
         <v>40455</v>
       </c>
     </row>
@@ -4648,7 +4648,7 @@
       <c r="C303" t="n">
         <v>605</v>
       </c>
-      <c r="D303" s="3" t="n">
+      <c s="3" r="D303" t="n">
         <v>40462</v>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       <c r="C304" t="n">
         <v>198</v>
       </c>
-      <c r="D304" s="3" t="n">
+      <c s="3" r="D304" t="n">
         <v>40469</v>
       </c>
     </row>
@@ -4676,7 +4676,7 @@
       <c r="C305" t="n">
         <v>217</v>
       </c>
-      <c r="D305" s="3" t="n">
+      <c s="3" r="D305" t="n">
         <v>40476</v>
       </c>
     </row>
@@ -4690,7 +4690,7 @@
       <c r="C306" t="n">
         <v>114</v>
       </c>
-      <c r="D306" s="3" t="n">
+      <c s="3" r="D306" t="n">
         <v>40483</v>
       </c>
     </row>
@@ -4704,7 +4704,7 @@
       <c r="C307" t="n">
         <v>577</v>
       </c>
-      <c r="D307" s="3" t="n">
+      <c s="3" r="D307" t="n">
         <v>40490</v>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
       <c r="C308" t="n">
         <v>800</v>
       </c>
-      <c r="D308" s="3" t="n">
+      <c s="3" r="D308" t="n">
         <v>40497</v>
       </c>
     </row>
@@ -4732,7 +4732,7 @@
       <c r="C309" t="n">
         <v>800</v>
       </c>
-      <c r="D309" s="3" t="n">
+      <c s="3" r="D309" t="n">
         <v>40504</v>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
       <c r="C310" t="n">
         <v>271</v>
       </c>
-      <c r="D310" s="3" t="n">
+      <c s="3" r="D310" t="n">
         <v>40511</v>
       </c>
     </row>
@@ -4760,7 +4760,7 @@
       <c r="C311" t="n">
         <v>314</v>
       </c>
-      <c r="D311" s="3" t="n">
+      <c s="3" r="D311" t="n">
         <v>40518</v>
       </c>
     </row>
@@ -4774,7 +4774,7 @@
       <c r="C312" t="n">
         <v>595</v>
       </c>
-      <c r="D312" s="3" t="n">
+      <c s="3" r="D312" t="n">
         <v>40525</v>
       </c>
     </row>
@@ -4788,7 +4788,7 @@
       <c r="C313" t="n">
         <v>288</v>
       </c>
-      <c r="D313" s="3" t="n">
+      <c s="3" r="D313" t="n">
         <v>40532</v>
       </c>
     </row>
@@ -4802,7 +4802,7 @@
       <c r="C314" t="n">
         <v>187</v>
       </c>
-      <c r="D314" s="3" t="n">
+      <c s="3" r="D314" t="n">
         <v>40539</v>
       </c>
     </row>
@@ -4816,7 +4816,7 @@
       <c r="C315" t="n">
         <v>157</v>
       </c>
-      <c r="D315" s="3" t="n">
+      <c s="3" r="D315" t="n">
         <v>40546</v>
       </c>
     </row>
@@ -4830,7 +4830,7 @@
       <c r="C316" t="n">
         <v>414</v>
       </c>
-      <c r="D316" s="3" t="n">
+      <c s="3" r="D316" t="n">
         <v>40553</v>
       </c>
     </row>
@@ -4844,7 +4844,7 @@
       <c r="C317" t="n">
         <v>982</v>
       </c>
-      <c r="D317" s="3" t="n">
+      <c s="3" r="D317" t="n">
         <v>40560</v>
       </c>
     </row>
@@ -4858,7 +4858,7 @@
       <c r="C318" t="n">
         <v>143</v>
       </c>
-      <c r="D318" s="3" t="n">
+      <c s="3" r="D318" t="n">
         <v>40567</v>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
       <c r="C319" t="n">
         <v>896</v>
       </c>
-      <c r="D319" s="3" t="n">
+      <c s="3" r="D319" t="n">
         <v>40574</v>
       </c>
     </row>
@@ -4886,7 +4886,7 @@
       <c r="C320" t="n">
         <v>203</v>
       </c>
-      <c r="D320" s="3" t="n">
+      <c s="3" r="D320" t="n">
         <v>40581</v>
       </c>
     </row>
@@ -4900,7 +4900,7 @@
       <c r="C321" t="n">
         <v>613</v>
       </c>
-      <c r="D321" s="3" t="n">
+      <c s="3" r="D321" t="n">
         <v>40588</v>
       </c>
     </row>
@@ -4914,7 +4914,7 @@
       <c r="C322" t="n">
         <v>454</v>
       </c>
-      <c r="D322" s="3" t="n">
+      <c s="3" r="D322" t="n">
         <v>40595</v>
       </c>
     </row>
@@ -4928,7 +4928,7 @@
       <c r="C323" t="n">
         <v>279</v>
       </c>
-      <c r="D323" s="3" t="n">
+      <c s="3" r="D323" t="n">
         <v>40602</v>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
       <c r="C324" t="n">
         <v>377</v>
       </c>
-      <c r="D324" s="3" t="n">
+      <c s="3" r="D324" t="n">
         <v>40609</v>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       <c r="C325" t="n">
         <v>942</v>
       </c>
-      <c r="D325" s="3" t="n">
+      <c s="3" r="D325" t="n">
         <v>40616</v>
       </c>
     </row>
@@ -4970,7 +4970,7 @@
       <c r="C326" t="n">
         <v>139</v>
       </c>
-      <c r="D326" s="3" t="n">
+      <c s="3" r="D326" t="n">
         <v>40623</v>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       <c r="C327" t="n">
         <v>406</v>
       </c>
-      <c r="D327" s="3" t="n">
+      <c s="3" r="D327" t="n">
         <v>40630</v>
       </c>
     </row>
@@ -4998,7 +4998,7 @@
       <c r="C328" t="n">
         <v>117</v>
       </c>
-      <c r="D328" s="3" t="n">
+      <c s="3" r="D328" t="n">
         <v>40637</v>
       </c>
     </row>
@@ -5012,7 +5012,7 @@
       <c r="C329" t="n">
         <v>352</v>
       </c>
-      <c r="D329" s="3" t="n">
+      <c s="3" r="D329" t="n">
         <v>40644</v>
       </c>
     </row>
@@ -5026,7 +5026,7 @@
       <c r="C330" t="n">
         <v>757</v>
       </c>
-      <c r="D330" s="3" t="n">
+      <c s="3" r="D330" t="n">
         <v>40651</v>
       </c>
     </row>
@@ -5040,7 +5040,7 @@
       <c r="C331" t="n">
         <v>776</v>
       </c>
-      <c r="D331" s="3" t="n">
+      <c s="3" r="D331" t="n">
         <v>40658</v>
       </c>
     </row>
@@ -5054,7 +5054,7 @@
       <c r="C332" t="n">
         <v>690</v>
       </c>
-      <c r="D332" s="3" t="n">
+      <c s="3" r="D332" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -5068,7 +5068,7 @@
       <c r="C333" t="n">
         <v>514</v>
       </c>
-      <c r="D333" s="3" t="n">
+      <c s="3" r="D333" t="n">
         <v>40672</v>
       </c>
     </row>
@@ -5082,7 +5082,7 @@
       <c r="C334" t="n">
         <v>272</v>
       </c>
-      <c r="D334" s="3" t="n">
+      <c s="3" r="D334" t="n">
         <v>40679</v>
       </c>
     </row>
@@ -5096,7 +5096,7 @@
       <c r="C335" t="n">
         <v>890</v>
       </c>
-      <c r="D335" s="3" t="n">
+      <c s="3" r="D335" t="n">
         <v>40686</v>
       </c>
     </row>
@@ -5110,7 +5110,7 @@
       <c r="C336" t="n">
         <v>26</v>
       </c>
-      <c r="D336" s="3" t="n">
+      <c s="3" r="D336" t="n">
         <v>40693</v>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
       <c r="C337" t="n">
         <v>294</v>
       </c>
-      <c r="D337" s="3" t="n">
+      <c s="3" r="D337" t="n">
         <v>40700</v>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       <c r="C338" t="n">
         <v>141</v>
       </c>
-      <c r="D338" s="3" t="n">
+      <c s="3" r="D338" t="n">
         <v>40707</v>
       </c>
     </row>
@@ -5152,7 +5152,7 @@
       <c r="C339" t="n">
         <v>63</v>
       </c>
-      <c r="D339" s="3" t="n">
+      <c s="3" r="D339" t="n">
         <v>40714</v>
       </c>
     </row>
@@ -5166,7 +5166,7 @@
       <c r="C340" t="n">
         <v>238</v>
       </c>
-      <c r="D340" s="3" t="n">
+      <c s="3" r="D340" t="n">
         <v>40721</v>
       </c>
     </row>
@@ -5180,7 +5180,7 @@
       <c r="C341" t="n">
         <v>436</v>
       </c>
-      <c r="D341" s="3" t="n">
+      <c s="3" r="D341" t="n">
         <v>40728</v>
       </c>
     </row>
@@ -5194,7 +5194,7 @@
       <c r="C342" t="n">
         <v>703</v>
       </c>
-      <c r="D342" s="3" t="n">
+      <c s="3" r="D342" t="n">
         <v>40735</v>
       </c>
     </row>
@@ -5208,7 +5208,7 @@
       <c r="C343" t="n">
         <v>186</v>
       </c>
-      <c r="D343" s="3" t="n">
+      <c s="3" r="D343" t="n">
         <v>40742</v>
       </c>
     </row>
@@ -5222,7 +5222,7 @@
       <c r="C344" t="n">
         <v>794</v>
       </c>
-      <c r="D344" s="3" t="n">
+      <c s="3" r="D344" t="n">
         <v>40749</v>
       </c>
     </row>
@@ -5236,7 +5236,7 @@
       <c r="C345" t="n">
         <v>440</v>
       </c>
-      <c r="D345" s="3" t="n">
+      <c s="3" r="D345" t="n">
         <v>40756</v>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
       <c r="C346" t="n">
         <v>270</v>
       </c>
-      <c r="D346" s="3" t="n">
+      <c s="3" r="D346" t="n">
         <v>40763</v>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
       <c r="C347" t="n">
         <v>138</v>
       </c>
-      <c r="D347" s="3" t="n">
+      <c s="3" r="D347" t="n">
         <v>40770</v>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
       <c r="C348" t="n">
         <v>651</v>
       </c>
-      <c r="D348" s="3" t="n">
+      <c s="3" r="D348" t="n">
         <v>40777</v>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
       <c r="C349" t="n">
         <v>319</v>
       </c>
-      <c r="D349" s="3" t="n">
+      <c s="3" r="D349" t="n">
         <v>40784</v>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
       <c r="C350" t="n">
         <v>53</v>
       </c>
-      <c r="D350" s="3" t="n">
+      <c s="3" r="D350" t="n">
         <v>40791</v>
       </c>
     </row>
@@ -5320,7 +5320,7 @@
       <c r="C351" t="n">
         <v>740</v>
       </c>
-      <c r="D351" s="3" t="n">
+      <c s="3" r="D351" t="n">
         <v>40798</v>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       <c r="C352" t="n">
         <v>651</v>
       </c>
-      <c r="D352" s="3" t="n">
+      <c s="3" r="D352" t="n">
         <v>40805</v>
       </c>
     </row>
@@ -5348,7 +5348,7 @@
       <c r="C353" t="n">
         <v>892</v>
       </c>
-      <c r="D353" s="3" t="n">
+      <c s="3" r="D353" t="n">
         <v>40812</v>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
       <c r="C354" t="n">
         <v>56</v>
       </c>
-      <c r="D354" s="3" t="n">
+      <c s="3" r="D354" t="n">
         <v>40819</v>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
       <c r="C355" t="n">
         <v>204</v>
       </c>
-      <c r="D355" s="3" t="n">
+      <c s="3" r="D355" t="n">
         <v>40826</v>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
       <c r="C356" t="n">
         <v>91</v>
       </c>
-      <c r="D356" s="3" t="n">
+      <c s="3" r="D356" t="n">
         <v>40833</v>
       </c>
     </row>
@@ -5404,7 +5404,7 @@
       <c r="C357" t="n">
         <v>860</v>
       </c>
-      <c r="D357" s="3" t="n">
+      <c s="3" r="D357" t="n">
         <v>40840</v>
       </c>
     </row>
@@ -5418,7 +5418,7 @@
       <c r="C358" t="n">
         <v>953</v>
       </c>
-      <c r="D358" s="3" t="n">
+      <c s="3" r="D358" t="n">
         <v>40847</v>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
       <c r="C359" t="n">
         <v>867</v>
       </c>
-      <c r="D359" s="3" t="n">
+      <c s="3" r="D359" t="n">
         <v>40854</v>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       <c r="C360" t="n">
         <v>953</v>
       </c>
-      <c r="D360" s="3" t="n">
+      <c s="3" r="D360" t="n">
         <v>40861</v>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
       <c r="C361" t="n">
         <v>798</v>
       </c>
-      <c r="D361" s="3" t="n">
+      <c s="3" r="D361" t="n">
         <v>40868</v>
       </c>
     </row>
@@ -5474,7 +5474,7 @@
       <c r="C362" t="n">
         <v>25</v>
       </c>
-      <c r="D362" s="3" t="n">
+      <c s="3" r="D362" t="n">
         <v>40875</v>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
       <c r="C363" t="n">
         <v>958</v>
       </c>
-      <c r="D363" s="3" t="n">
+      <c s="3" r="D363" t="n">
         <v>40882</v>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
       <c r="C364" t="n">
         <v>391</v>
       </c>
-      <c r="D364" s="3" t="n">
+      <c s="3" r="D364" t="n">
         <v>40889</v>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
       <c r="C365" t="n">
         <v>865</v>
       </c>
-      <c r="D365" s="3" t="n">
+      <c s="3" r="D365" t="n">
         <v>40896</v>
       </c>
     </row>
@@ -5530,7 +5530,7 @@
       <c r="C366" t="n">
         <v>452</v>
       </c>
-      <c r="D366" s="3" t="n">
+      <c s="3" r="D366" t="n">
         <v>40903</v>
       </c>
     </row>
@@ -5544,7 +5544,7 @@
       <c r="C367" t="n">
         <v>389</v>
       </c>
-      <c r="D367" s="3" t="n">
+      <c s="3" r="D367" t="n">
         <v>40910</v>
       </c>
     </row>
@@ -5558,7 +5558,7 @@
       <c r="C368" t="n">
         <v>817</v>
       </c>
-      <c r="D368" s="3" t="n">
+      <c s="3" r="D368" t="n">
         <v>40917</v>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
       <c r="C369" t="n">
         <v>169</v>
       </c>
-      <c r="D369" s="3" t="n">
+      <c s="3" r="D369" t="n">
         <v>40924</v>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="C370" t="n">
         <v>406</v>
       </c>
-      <c r="D370" s="3" t="n">
+      <c s="3" r="D370" t="n">
         <v>40931</v>
       </c>
     </row>
@@ -5600,7 +5600,7 @@
       <c r="C371" t="n">
         <v>889</v>
       </c>
-      <c r="D371" s="3" t="n">
+      <c s="3" r="D371" t="n">
         <v>40938</v>
       </c>
     </row>
@@ -5614,7 +5614,7 @@
       <c r="C372" t="n">
         <v>249</v>
       </c>
-      <c r="D372" s="3" t="n">
+      <c s="3" r="D372" t="n">
         <v>40945</v>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
       <c r="C373" t="n">
         <v>322</v>
       </c>
-      <c r="D373" s="3" t="n">
+      <c s="3" r="D373" t="n">
         <v>40952</v>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       <c r="C374" t="n">
         <v>177</v>
       </c>
-      <c r="D374" s="3" t="n">
+      <c s="3" r="D374" t="n">
         <v>40959</v>
       </c>
     </row>
@@ -5656,7 +5656,7 @@
       <c r="C375" t="n">
         <v>302</v>
       </c>
-      <c r="D375" s="3" t="n">
+      <c s="3" r="D375" t="n">
         <v>40966</v>
       </c>
     </row>
@@ -5670,7 +5670,7 @@
       <c r="C376" t="n">
         <v>948</v>
       </c>
-      <c r="D376" s="3" t="n">
+      <c s="3" r="D376" t="n">
         <v>40973</v>
       </c>
     </row>
@@ -5684,7 +5684,7 @@
       <c r="C377" t="n">
         <v>71</v>
       </c>
-      <c r="D377" s="3" t="n">
+      <c s="3" r="D377" t="n">
         <v>40980</v>
       </c>
     </row>
@@ -5698,7 +5698,7 @@
       <c r="C378" t="n">
         <v>316</v>
       </c>
-      <c r="D378" s="3" t="n">
+      <c s="3" r="D378" t="n">
         <v>40987</v>
       </c>
     </row>
@@ -5712,7 +5712,7 @@
       <c r="C379" t="n">
         <v>343</v>
       </c>
-      <c r="D379" s="3" t="n">
+      <c s="3" r="D379" t="n">
         <v>40994</v>
       </c>
     </row>
@@ -5726,7 +5726,7 @@
       <c r="C380" t="n">
         <v>93</v>
       </c>
-      <c r="D380" s="3" t="n">
+      <c s="3" r="D380" t="n">
         <v>41001</v>
       </c>
     </row>
@@ -5740,7 +5740,7 @@
       <c r="C381" t="n">
         <v>343</v>
       </c>
-      <c r="D381" s="3" t="n">
+      <c s="3" r="D381" t="n">
         <v>41008</v>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
       <c r="C382" t="n">
         <v>918</v>
       </c>
-      <c r="D382" s="3" t="n">
+      <c s="3" r="D382" t="n">
         <v>41015</v>
       </c>
     </row>
@@ -5768,7 +5768,7 @@
       <c r="C383" t="n">
         <v>569</v>
       </c>
-      <c r="D383" s="3" t="n">
+      <c s="3" r="D383" t="n">
         <v>41022</v>
       </c>
     </row>
@@ -5782,7 +5782,7 @@
       <c r="C384" t="n">
         <v>274</v>
       </c>
-      <c r="D384" s="3" t="n">
+      <c s="3" r="D384" t="n">
         <v>41029</v>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="C385" t="n">
         <v>70</v>
       </c>
-      <c r="D385" s="3" t="n">
+      <c s="3" r="D385" t="n">
         <v>41036</v>
       </c>
     </row>
@@ -5810,7 +5810,7 @@
       <c r="C386" t="n">
         <v>881</v>
       </c>
-      <c r="D386" s="3" t="n">
+      <c s="3" r="D386" t="n">
         <v>41043</v>
       </c>
     </row>
@@ -5824,7 +5824,7 @@
       <c r="C387" t="n">
         <v>383</v>
       </c>
-      <c r="D387" s="3" t="n">
+      <c s="3" r="D387" t="n">
         <v>41050</v>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
       <c r="C388" t="n">
         <v>396</v>
       </c>
-      <c r="D388" s="3" t="n">
+      <c s="3" r="D388" t="n">
         <v>41057</v>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       <c r="C389" t="n">
         <v>963</v>
       </c>
-      <c r="D389" s="3" t="n">
+      <c s="3" r="D389" t="n">
         <v>41064</v>
       </c>
     </row>
@@ -5866,7 +5866,7 @@
       <c r="C390" t="n">
         <v>82</v>
       </c>
-      <c r="D390" s="3" t="n">
+      <c s="3" r="D390" t="n">
         <v>41071</v>
       </c>
     </row>
@@ -5880,7 +5880,7 @@
       <c r="C391" t="n">
         <v>690</v>
       </c>
-      <c r="D391" s="3" t="n">
+      <c s="3" r="D391" t="n">
         <v>41078</v>
       </c>
     </row>
@@ -5894,7 +5894,7 @@
       <c r="C392" t="n">
         <v>825</v>
       </c>
-      <c r="D392" s="3" t="n">
+      <c s="3" r="D392" t="n">
         <v>41085</v>
       </c>
     </row>
@@ -5908,7 +5908,7 @@
       <c r="C393" t="n">
         <v>385</v>
       </c>
-      <c r="D393" s="3" t="n">
+      <c s="3" r="D393" t="n">
         <v>41092</v>
       </c>
     </row>
@@ -5922,7 +5922,7 @@
       <c r="C394" t="n">
         <v>58</v>
       </c>
-      <c r="D394" s="3" t="n">
+      <c s="3" r="D394" t="n">
         <v>41099</v>
       </c>
     </row>
@@ -5936,7 +5936,7 @@
       <c r="C395" t="n">
         <v>527</v>
       </c>
-      <c r="D395" s="3" t="n">
+      <c s="3" r="D395" t="n">
         <v>41106</v>
       </c>
     </row>
@@ -5950,7 +5950,7 @@
       <c r="C396" t="n">
         <v>671</v>
       </c>
-      <c r="D396" s="3" t="n">
+      <c s="3" r="D396" t="n">
         <v>41113</v>
       </c>
     </row>
@@ -5964,7 +5964,7 @@
       <c r="C397" t="n">
         <v>218</v>
       </c>
-      <c r="D397" s="3" t="n">
+      <c s="3" r="D397" t="n">
         <v>41120</v>
       </c>
     </row>
@@ -5978,7 +5978,7 @@
       <c r="C398" t="n">
         <v>332</v>
       </c>
-      <c r="D398" s="3" t="n">
+      <c s="3" r="D398" t="n">
         <v>41127</v>
       </c>
     </row>
@@ -5992,7 +5992,7 @@
       <c r="C399" t="n">
         <v>568</v>
       </c>
-      <c r="D399" s="3" t="n">
+      <c s="3" r="D399" t="n">
         <v>41134</v>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
       <c r="C400" t="n">
         <v>416</v>
       </c>
-      <c r="D400" s="3" t="n">
+      <c s="3" r="D400" t="n">
         <v>41141</v>
       </c>
     </row>
@@ -6020,7 +6020,7 @@
       <c r="C401" t="n">
         <v>276</v>
       </c>
-      <c r="D401" s="3" t="n">
+      <c s="3" r="D401" t="n">
         <v>41148</v>
       </c>
     </row>
@@ -6034,7 +6034,7 @@
       <c r="C402" t="n">
         <v>166</v>
       </c>
-      <c r="D402" s="3" t="n">
+      <c s="3" r="D402" t="n">
         <v>41155</v>
       </c>
     </row>
@@ -6048,7 +6048,7 @@
       <c r="C403" t="n">
         <v>152</v>
       </c>
-      <c r="D403" s="3" t="n">
+      <c s="3" r="D403" t="n">
         <v>41162</v>
       </c>
     </row>
@@ -6062,7 +6062,7 @@
       <c r="C404" t="n">
         <v>412</v>
       </c>
-      <c r="D404" s="3" t="n">
+      <c s="3" r="D404" t="n">
         <v>41169</v>
       </c>
     </row>
@@ -6076,7 +6076,7 @@
       <c r="C405" t="n">
         <v>437</v>
       </c>
-      <c r="D405" s="3" t="n">
+      <c s="3" r="D405" t="n">
         <v>41176</v>
       </c>
     </row>
@@ -6090,7 +6090,7 @@
       <c r="C406" t="n">
         <v>680</v>
       </c>
-      <c r="D406" s="3" t="n">
+      <c s="3" r="D406" t="n">
         <v>41183</v>
       </c>
     </row>
@@ -6104,7 +6104,7 @@
       <c r="C407" t="n">
         <v>822</v>
       </c>
-      <c r="D407" s="3" t="n">
+      <c s="3" r="D407" t="n">
         <v>41190</v>
       </c>
     </row>
@@ -6118,7 +6118,7 @@
       <c r="C408" t="n">
         <v>603</v>
       </c>
-      <c r="D408" s="3" t="n">
+      <c s="3" r="D408" t="n">
         <v>41197</v>
       </c>
     </row>
@@ -6132,7 +6132,7 @@
       <c r="C409" t="n">
         <v>776</v>
       </c>
-      <c r="D409" s="3" t="n">
+      <c s="3" r="D409" t="n">
         <v>41204</v>
       </c>
     </row>
@@ -6146,7 +6146,7 @@
       <c r="C410" t="n">
         <v>86</v>
       </c>
-      <c r="D410" s="3" t="n">
+      <c s="3" r="D410" t="n">
         <v>41211</v>
       </c>
     </row>
@@ -6160,7 +6160,7 @@
       <c r="C411" t="n">
         <v>748</v>
       </c>
-      <c r="D411" s="3" t="n">
+      <c s="3" r="D411" t="n">
         <v>41218</v>
       </c>
     </row>
@@ -6174,7 +6174,7 @@
       <c r="C412" t="n">
         <v>121</v>
       </c>
-      <c r="D412" s="3" t="n">
+      <c s="3" r="D412" t="n">
         <v>41225</v>
       </c>
     </row>
@@ -6188,7 +6188,7 @@
       <c r="C413" t="n">
         <v>595</v>
       </c>
-      <c r="D413" s="3" t="n">
+      <c s="3" r="D413" t="n">
         <v>41232</v>
       </c>
     </row>
@@ -6202,7 +6202,7 @@
       <c r="C414" t="n">
         <v>769</v>
       </c>
-      <c r="D414" s="3" t="n">
+      <c s="3" r="D414" t="n">
         <v>41239</v>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       <c r="C415" t="n">
         <v>531</v>
       </c>
-      <c r="D415" s="3" t="n">
+      <c s="3" r="D415" t="n">
         <v>41246</v>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       <c r="C416" t="n">
         <v>955</v>
       </c>
-      <c r="D416" s="3" t="n">
+      <c s="3" r="D416" t="n">
         <v>41253</v>
       </c>
     </row>
@@ -6244,7 +6244,7 @@
       <c r="C417" t="n">
         <v>823</v>
       </c>
-      <c r="D417" s="3" t="n">
+      <c s="3" r="D417" t="n">
         <v>41260</v>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
       <c r="C418" t="n">
         <v>210</v>
       </c>
-      <c r="D418" s="3" t="n">
+      <c s="3" r="D418" t="n">
         <v>41267</v>
       </c>
     </row>
@@ -6272,7 +6272,7 @@
       <c r="C419" t="n">
         <v>121</v>
       </c>
-      <c r="D419" s="3" t="n">
+      <c s="3" r="D419" t="n">
         <v>41274</v>
       </c>
     </row>
@@ -6286,7 +6286,7 @@
       <c r="C420" t="n">
         <v>713</v>
       </c>
-      <c r="D420" s="3" t="n">
+      <c s="3" r="D420" t="n">
         <v>39818</v>
       </c>
     </row>
@@ -6300,7 +6300,7 @@
       <c r="C421" t="n">
         <v>707</v>
       </c>
-      <c r="D421" s="3" t="n">
+      <c s="3" r="D421" t="n">
         <v>39825</v>
       </c>
     </row>
@@ -6314,7 +6314,7 @@
       <c r="C422" t="n">
         <v>394</v>
       </c>
-      <c r="D422" s="3" t="n">
+      <c s="3" r="D422" t="n">
         <v>39832</v>
       </c>
     </row>
@@ -6328,7 +6328,7 @@
       <c r="C423" t="n">
         <v>267</v>
       </c>
-      <c r="D423" s="3" t="n">
+      <c s="3" r="D423" t="n">
         <v>39839</v>
       </c>
     </row>
@@ -6342,7 +6342,7 @@
       <c r="C424" t="n">
         <v>973</v>
       </c>
-      <c r="D424" s="3" t="n">
+      <c s="3" r="D424" t="n">
         <v>39846</v>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       <c r="C425" t="n">
         <v>687</v>
       </c>
-      <c r="D425" s="3" t="n">
+      <c s="3" r="D425" t="n">
         <v>39853</v>
       </c>
     </row>
@@ -6370,7 +6370,7 @@
       <c r="C426" t="n">
         <v>601</v>
       </c>
-      <c r="D426" s="3" t="n">
+      <c s="3" r="D426" t="n">
         <v>39860</v>
       </c>
     </row>
@@ -6384,7 +6384,7 @@
       <c r="C427" t="n">
         <v>991</v>
       </c>
-      <c r="D427" s="3" t="n">
+      <c s="3" r="D427" t="n">
         <v>39867</v>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
       <c r="C428" t="n">
         <v>214</v>
       </c>
-      <c r="D428" s="3" t="n">
+      <c s="3" r="D428" t="n">
         <v>39874</v>
       </c>
     </row>
@@ -6412,7 +6412,7 @@
       <c r="C429" t="n">
         <v>213</v>
       </c>
-      <c r="D429" s="3" t="n">
+      <c s="3" r="D429" t="n">
         <v>39881</v>
       </c>
     </row>
@@ -6426,7 +6426,7 @@
       <c r="C430" t="n">
         <v>390</v>
       </c>
-      <c r="D430" s="3" t="n">
+      <c s="3" r="D430" t="n">
         <v>39888</v>
       </c>
     </row>
@@ -6440,7 +6440,7 @@
       <c r="C431" t="n">
         <v>121</v>
       </c>
-      <c r="D431" s="3" t="n">
+      <c s="3" r="D431" t="n">
         <v>39895</v>
       </c>
     </row>
@@ -6454,7 +6454,7 @@
       <c r="C432" t="n">
         <v>180</v>
       </c>
-      <c r="D432" s="3" t="n">
+      <c s="3" r="D432" t="n">
         <v>39902</v>
       </c>
     </row>
@@ -6468,7 +6468,7 @@
       <c r="C433" t="n">
         <v>281</v>
       </c>
-      <c r="D433" s="3" t="n">
+      <c s="3" r="D433" t="n">
         <v>39909</v>
       </c>
     </row>
@@ -6482,7 +6482,7 @@
       <c r="C434" t="n">
         <v>691</v>
       </c>
-      <c r="D434" s="3" t="n">
+      <c s="3" r="D434" t="n">
         <v>39916</v>
       </c>
     </row>
@@ -6496,7 +6496,7 @@
       <c r="C435" t="n">
         <v>843</v>
       </c>
-      <c r="D435" s="3" t="n">
+      <c s="3" r="D435" t="n">
         <v>39923</v>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
       <c r="C436" t="n">
         <v>301</v>
       </c>
-      <c r="D436" s="3" t="n">
+      <c s="3" r="D436" t="n">
         <v>39930</v>
       </c>
     </row>
@@ -6524,7 +6524,7 @@
       <c r="C437" t="n">
         <v>787</v>
       </c>
-      <c r="D437" s="3" t="n">
+      <c s="3" r="D437" t="n">
         <v>39937</v>
       </c>
     </row>
@@ -6538,7 +6538,7 @@
       <c r="C438" t="n">
         <v>51</v>
       </c>
-      <c r="D438" s="3" t="n">
+      <c s="3" r="D438" t="n">
         <v>39944</v>
       </c>
     </row>
@@ -6552,7 +6552,7 @@
       <c r="C439" t="n">
         <v>986</v>
       </c>
-      <c r="D439" s="3" t="n">
+      <c s="3" r="D439" t="n">
         <v>39951</v>
       </c>
     </row>
@@ -6566,7 +6566,7 @@
       <c r="C440" t="n">
         <v>382</v>
       </c>
-      <c r="D440" s="3" t="n">
+      <c s="3" r="D440" t="n">
         <v>39958</v>
       </c>
     </row>
@@ -6580,7 +6580,7 @@
       <c r="C441" t="n">
         <v>998</v>
       </c>
-      <c r="D441" s="3" t="n">
+      <c s="3" r="D441" t="n">
         <v>39965</v>
       </c>
     </row>
@@ -6594,7 +6594,7 @@
       <c r="C442" t="n">
         <v>513</v>
       </c>
-      <c r="D442" s="3" t="n">
+      <c s="3" r="D442" t="n">
         <v>39972</v>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
       <c r="C443" t="n">
         <v>811</v>
       </c>
-      <c r="D443" s="3" t="n">
+      <c s="3" r="D443" t="n">
         <v>39979</v>
       </c>
     </row>
@@ -6622,7 +6622,7 @@
       <c r="C444" t="n">
         <v>981</v>
       </c>
-      <c r="D444" s="3" t="n">
+      <c s="3" r="D444" t="n">
         <v>39986</v>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
       <c r="C445" t="n">
         <v>278</v>
       </c>
-      <c r="D445" s="3" t="n">
+      <c s="3" r="D445" t="n">
         <v>39993</v>
       </c>
     </row>
@@ -6650,7 +6650,7 @@
       <c r="C446" t="n">
         <v>491</v>
       </c>
-      <c r="D446" s="3" t="n">
+      <c s="3" r="D446" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -6664,7 +6664,7 @@
       <c r="C447" t="n">
         <v>767</v>
       </c>
-      <c r="D447" s="3" t="n">
+      <c s="3" r="D447" t="n">
         <v>40007</v>
       </c>
     </row>
@@ -6678,7 +6678,7 @@
       <c r="C448" t="n">
         <v>340</v>
       </c>
-      <c r="D448" s="3" t="n">
+      <c s="3" r="D448" t="n">
         <v>40014</v>
       </c>
     </row>
@@ -6692,7 +6692,7 @@
       <c r="C449" t="n">
         <v>654</v>
       </c>
-      <c r="D449" s="3" t="n">
+      <c s="3" r="D449" t="n">
         <v>40021</v>
       </c>
     </row>
@@ -6706,7 +6706,7 @@
       <c r="C450" t="n">
         <v>394</v>
       </c>
-      <c r="D450" s="3" t="n">
+      <c s="3" r="D450" t="n">
         <v>40028</v>
       </c>
     </row>
@@ -6720,7 +6720,7 @@
       <c r="C451" t="n">
         <v>599</v>
       </c>
-      <c r="D451" s="3" t="n">
+      <c s="3" r="D451" t="n">
         <v>40035</v>
       </c>
     </row>
@@ -6734,7 +6734,7 @@
       <c r="C452" t="n">
         <v>523</v>
       </c>
-      <c r="D452" s="3" t="n">
+      <c s="3" r="D452" t="n">
         <v>40042</v>
       </c>
     </row>
@@ -6748,7 +6748,7 @@
       <c r="C453" t="n">
         <v>703</v>
       </c>
-      <c r="D453" s="3" t="n">
+      <c s="3" r="D453" t="n">
         <v>40049</v>
       </c>
     </row>
@@ -6762,7 +6762,7 @@
       <c r="C454" t="n">
         <v>688</v>
       </c>
-      <c r="D454" s="3" t="n">
+      <c s="3" r="D454" t="n">
         <v>40056</v>
       </c>
     </row>
@@ -6776,7 +6776,7 @@
       <c r="C455" t="n">
         <v>605</v>
       </c>
-      <c r="D455" s="3" t="n">
+      <c s="3" r="D455" t="n">
         <v>40063</v>
       </c>
     </row>
@@ -6790,7 +6790,7 @@
       <c r="C456" t="n">
         <v>734</v>
       </c>
-      <c r="D456" s="3" t="n">
+      <c s="3" r="D456" t="n">
         <v>40070</v>
       </c>
     </row>
@@ -6804,7 +6804,7 @@
       <c r="C457" t="n">
         <v>214</v>
       </c>
-      <c r="D457" s="3" t="n">
+      <c s="3" r="D457" t="n">
         <v>40077</v>
       </c>
     </row>
@@ -6818,7 +6818,7 @@
       <c r="C458" t="n">
         <v>368</v>
       </c>
-      <c r="D458" s="3" t="n">
+      <c s="3" r="D458" t="n">
         <v>40084</v>
       </c>
     </row>
@@ -6832,7 +6832,7 @@
       <c r="C459" t="n">
         <v>475</v>
       </c>
-      <c r="D459" s="3" t="n">
+      <c s="3" r="D459" t="n">
         <v>40091</v>
       </c>
     </row>
@@ -6846,7 +6846,7 @@
       <c r="C460" t="n">
         <v>812</v>
       </c>
-      <c r="D460" s="3" t="n">
+      <c s="3" r="D460" t="n">
         <v>40098</v>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
       <c r="C461" t="n">
         <v>784</v>
       </c>
-      <c r="D461" s="3" t="n">
+      <c s="3" r="D461" t="n">
         <v>40105</v>
       </c>
     </row>
@@ -6874,7 +6874,7 @@
       <c r="C462" t="n">
         <v>701</v>
       </c>
-      <c r="D462" s="3" t="n">
+      <c s="3" r="D462" t="n">
         <v>40112</v>
       </c>
     </row>
@@ -6888,7 +6888,7 @@
       <c r="C463" t="n">
         <v>810</v>
       </c>
-      <c r="D463" s="3" t="n">
+      <c s="3" r="D463" t="n">
         <v>40119</v>
       </c>
     </row>
@@ -6902,7 +6902,7 @@
       <c r="C464" t="n">
         <v>174</v>
       </c>
-      <c r="D464" s="3" t="n">
+      <c s="3" r="D464" t="n">
         <v>40126</v>
       </c>
     </row>
@@ -6916,7 +6916,7 @@
       <c r="C465" t="n">
         <v>230</v>
       </c>
-      <c r="D465" s="3" t="n">
+      <c s="3" r="D465" t="n">
         <v>40133</v>
       </c>
     </row>
@@ -6930,7 +6930,7 @@
       <c r="C466" t="n">
         <v>387</v>
       </c>
-      <c r="D466" s="3" t="n">
+      <c s="3" r="D466" t="n">
         <v>40140</v>
       </c>
     </row>
@@ -6944,7 +6944,7 @@
       <c r="C467" t="n">
         <v>913</v>
       </c>
-      <c r="D467" s="3" t="n">
+      <c s="3" r="D467" t="n">
         <v>40147</v>
       </c>
     </row>
@@ -6958,7 +6958,7 @@
       <c r="C468" t="n">
         <v>780</v>
       </c>
-      <c r="D468" s="3" t="n">
+      <c s="3" r="D468" t="n">
         <v>40154</v>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       <c r="C469" t="n">
         <v>691</v>
       </c>
-      <c r="D469" s="3" t="n">
+      <c s="3" r="D469" t="n">
         <v>40161</v>
       </c>
     </row>
@@ -6986,7 +6986,7 @@
       <c r="C470" t="n">
         <v>778</v>
       </c>
-      <c r="D470" s="3" t="n">
+      <c s="3" r="D470" t="n">
         <v>40168</v>
       </c>
     </row>
@@ -7000,7 +7000,7 @@
       <c r="C471" t="n">
         <v>441</v>
       </c>
-      <c r="D471" s="3" t="n">
+      <c s="3" r="D471" t="n">
         <v>40175</v>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
       <c r="C472" t="n">
         <v>545</v>
       </c>
-      <c r="D472" s="3" t="n">
+      <c s="3" r="D472" t="n">
         <v>40182</v>
       </c>
     </row>
@@ -7028,7 +7028,7 @@
       <c r="C473" t="n">
         <v>929</v>
       </c>
-      <c r="D473" s="3" t="n">
+      <c s="3" r="D473" t="n">
         <v>40189</v>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
       <c r="C474" t="n">
         <v>941</v>
       </c>
-      <c r="D474" s="3" t="n">
+      <c s="3" r="D474" t="n">
         <v>40196</v>
       </c>
     </row>
@@ -7056,7 +7056,7 @@
       <c r="C475" t="n">
         <v>93</v>
       </c>
-      <c r="D475" s="3" t="n">
+      <c s="3" r="D475" t="n">
         <v>40203</v>
       </c>
     </row>
@@ -7070,7 +7070,7 @@
       <c r="C476" t="n">
         <v>619</v>
       </c>
-      <c r="D476" s="3" t="n">
+      <c s="3" r="D476" t="n">
         <v>40210</v>
       </c>
     </row>
@@ -7084,7 +7084,7 @@
       <c r="C477" t="n">
         <v>335</v>
       </c>
-      <c r="D477" s="3" t="n">
+      <c s="3" r="D477" t="n">
         <v>40217</v>
       </c>
     </row>
@@ -7098,7 +7098,7 @@
       <c r="C478" t="n">
         <v>750</v>
       </c>
-      <c r="D478" s="3" t="n">
+      <c s="3" r="D478" t="n">
         <v>40224</v>
       </c>
     </row>
@@ -7112,7 +7112,7 @@
       <c r="C479" t="n">
         <v>408</v>
       </c>
-      <c r="D479" s="3" t="n">
+      <c s="3" r="D479" t="n">
         <v>40231</v>
       </c>
     </row>
@@ -7126,7 +7126,7 @@
       <c r="C480" t="n">
         <v>758</v>
       </c>
-      <c r="D480" s="3" t="n">
+      <c s="3" r="D480" t="n">
         <v>40238</v>
       </c>
     </row>
@@ -7140,7 +7140,7 @@
       <c r="C481" t="n">
         <v>528</v>
       </c>
-      <c r="D481" s="3" t="n">
+      <c s="3" r="D481" t="n">
         <v>40245</v>
       </c>
     </row>
@@ -7154,7 +7154,7 @@
       <c r="C482" t="n">
         <v>739</v>
       </c>
-      <c r="D482" s="3" t="n">
+      <c s="3" r="D482" t="n">
         <v>40252</v>
       </c>
     </row>
@@ -7168,7 +7168,7 @@
       <c r="C483" t="n">
         <v>114</v>
       </c>
-      <c r="D483" s="3" t="n">
+      <c s="3" r="D483" t="n">
         <v>40259</v>
       </c>
     </row>
@@ -7182,7 +7182,7 @@
       <c r="C484" t="n">
         <v>816</v>
       </c>
-      <c r="D484" s="3" t="n">
+      <c s="3" r="D484" t="n">
         <v>40266</v>
       </c>
     </row>
@@ -7196,7 +7196,7 @@
       <c r="C485" t="n">
         <v>887</v>
       </c>
-      <c r="D485" s="3" t="n">
+      <c s="3" r="D485" t="n">
         <v>40273</v>
       </c>
     </row>
@@ -7210,7 +7210,7 @@
       <c r="C486" t="n">
         <v>806</v>
       </c>
-      <c r="D486" s="3" t="n">
+      <c s="3" r="D486" t="n">
         <v>40280</v>
       </c>
     </row>
@@ -7224,7 +7224,7 @@
       <c r="C487" t="n">
         <v>420</v>
       </c>
-      <c r="D487" s="3" t="n">
+      <c s="3" r="D487" t="n">
         <v>40287</v>
       </c>
     </row>
@@ -7238,7 +7238,7 @@
       <c r="C488" t="n">
         <v>963</v>
       </c>
-      <c r="D488" s="3" t="n">
+      <c s="3" r="D488" t="n">
         <v>40294</v>
       </c>
     </row>
@@ -7252,7 +7252,7 @@
       <c r="C489" t="n">
         <v>419</v>
       </c>
-      <c r="D489" s="3" t="n">
+      <c s="3" r="D489" t="n">
         <v>40301</v>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
       <c r="C490" t="n">
         <v>241</v>
       </c>
-      <c r="D490" s="3" t="n">
+      <c s="3" r="D490" t="n">
         <v>40308</v>
       </c>
     </row>
@@ -7280,7 +7280,7 @@
       <c r="C491" t="n">
         <v>49</v>
       </c>
-      <c r="D491" s="3" t="n">
+      <c s="3" r="D491" t="n">
         <v>40315</v>
       </c>
     </row>
@@ -7294,7 +7294,7 @@
       <c r="C492" t="n">
         <v>840</v>
       </c>
-      <c r="D492" s="3" t="n">
+      <c s="3" r="D492" t="n">
         <v>40322</v>
       </c>
     </row>
@@ -7308,7 +7308,7 @@
       <c r="C493" t="n">
         <v>274</v>
       </c>
-      <c r="D493" s="3" t="n">
+      <c s="3" r="D493" t="n">
         <v>40329</v>
       </c>
     </row>
@@ -7322,7 +7322,7 @@
       <c r="C494" t="n">
         <v>477</v>
       </c>
-      <c r="D494" s="3" t="n">
+      <c s="3" r="D494" t="n">
         <v>40336</v>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       <c r="C495" t="n">
         <v>964</v>
       </c>
-      <c r="D495" s="3" t="n">
+      <c s="3" r="D495" t="n">
         <v>40343</v>
       </c>
     </row>
@@ -7350,7 +7350,7 @@
       <c r="C496" t="n">
         <v>756</v>
       </c>
-      <c r="D496" s="3" t="n">
+      <c s="3" r="D496" t="n">
         <v>40350</v>
       </c>
     </row>
@@ -7364,7 +7364,7 @@
       <c r="C497" t="n">
         <v>658</v>
       </c>
-      <c r="D497" s="3" t="n">
+      <c s="3" r="D497" t="n">
         <v>40357</v>
       </c>
     </row>
@@ -7378,7 +7378,7 @@
       <c r="C498" t="n">
         <v>166</v>
       </c>
-      <c r="D498" s="3" t="n">
+      <c s="3" r="D498" t="n">
         <v>40364</v>
       </c>
     </row>
@@ -7392,7 +7392,7 @@
       <c r="C499" t="n">
         <v>31</v>
       </c>
-      <c r="D499" s="3" t="n">
+      <c s="3" r="D499" t="n">
         <v>40371</v>
       </c>
     </row>
@@ -7406,7 +7406,7 @@
       <c r="C500" t="n">
         <v>27</v>
       </c>
-      <c r="D500" s="3" t="n">
+      <c s="3" r="D500" t="n">
         <v>40378</v>
       </c>
     </row>
@@ -7420,7 +7420,7 @@
       <c r="C501" t="n">
         <v>348</v>
       </c>
-      <c r="D501" s="3" t="n">
+      <c s="3" r="D501" t="n">
         <v>40385</v>
       </c>
     </row>
@@ -7434,7 +7434,7 @@
       <c r="C502" t="n">
         <v>374</v>
       </c>
-      <c r="D502" s="3" t="n">
+      <c s="3" r="D502" t="n">
         <v>40392</v>
       </c>
     </row>
@@ -7448,7 +7448,7 @@
       <c r="C503" t="n">
         <v>259</v>
       </c>
-      <c r="D503" s="3" t="n">
+      <c s="3" r="D503" t="n">
         <v>40399</v>
       </c>
     </row>
@@ -7462,7 +7462,7 @@
       <c r="C504" t="n">
         <v>413</v>
       </c>
-      <c r="D504" s="3" t="n">
+      <c s="3" r="D504" t="n">
         <v>40406</v>
       </c>
     </row>
@@ -7476,7 +7476,7 @@
       <c r="C505" t="n">
         <v>181</v>
       </c>
-      <c r="D505" s="3" t="n">
+      <c s="3" r="D505" t="n">
         <v>40413</v>
       </c>
     </row>
@@ -7490,7 +7490,7 @@
       <c r="C506" t="n">
         <v>60</v>
       </c>
-      <c r="D506" s="3" t="n">
+      <c s="3" r="D506" t="n">
         <v>40420</v>
       </c>
     </row>
@@ -7504,7 +7504,7 @@
       <c r="C507" t="n">
         <v>383</v>
       </c>
-      <c r="D507" s="3" t="n">
+      <c s="3" r="D507" t="n">
         <v>40427</v>
       </c>
     </row>
@@ -7518,7 +7518,7 @@
       <c r="C508" t="n">
         <v>230</v>
       </c>
-      <c r="D508" s="3" t="n">
+      <c s="3" r="D508" t="n">
         <v>40434</v>
       </c>
     </row>
@@ -7532,7 +7532,7 @@
       <c r="C509" t="n">
         <v>199</v>
       </c>
-      <c r="D509" s="3" t="n">
+      <c s="3" r="D509" t="n">
         <v>40441</v>
       </c>
     </row>
@@ -7546,7 +7546,7 @@
       <c r="C510" t="n">
         <v>103</v>
       </c>
-      <c r="D510" s="3" t="n">
+      <c s="3" r="D510" t="n">
         <v>40448</v>
       </c>
     </row>
@@ -7560,7 +7560,7 @@
       <c r="C511" t="n">
         <v>642</v>
       </c>
-      <c r="D511" s="3" t="n">
+      <c s="3" r="D511" t="n">
         <v>40455</v>
       </c>
     </row>
@@ -7574,7 +7574,7 @@
       <c r="C512" t="n">
         <v>415</v>
       </c>
-      <c r="D512" s="3" t="n">
+      <c s="3" r="D512" t="n">
         <v>40462</v>
       </c>
     </row>
@@ -7588,7 +7588,7 @@
       <c r="C513" t="n">
         <v>244</v>
       </c>
-      <c r="D513" s="3" t="n">
+      <c s="3" r="D513" t="n">
         <v>40469</v>
       </c>
     </row>
@@ -7602,7 +7602,7 @@
       <c r="C514" t="n">
         <v>873</v>
       </c>
-      <c r="D514" s="3" t="n">
+      <c s="3" r="D514" t="n">
         <v>40476</v>
       </c>
     </row>
@@ -7616,7 +7616,7 @@
       <c r="C515" t="n">
         <v>173</v>
       </c>
-      <c r="D515" s="3" t="n">
+      <c s="3" r="D515" t="n">
         <v>40483</v>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="C516" t="n">
         <v>176</v>
       </c>
-      <c r="D516" s="3" t="n">
+      <c s="3" r="D516" t="n">
         <v>40490</v>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
       <c r="C517" t="n">
         <v>856</v>
       </c>
-      <c r="D517" s="3" t="n">
+      <c s="3" r="D517" t="n">
         <v>40497</v>
       </c>
     </row>
@@ -7658,7 +7658,7 @@
       <c r="C518" t="n">
         <v>508</v>
       </c>
-      <c r="D518" s="3" t="n">
+      <c s="3" r="D518" t="n">
         <v>40504</v>
       </c>
     </row>
@@ -7672,7 +7672,7 @@
       <c r="C519" t="n">
         <v>736</v>
       </c>
-      <c r="D519" s="3" t="n">
+      <c s="3" r="D519" t="n">
         <v>40511</v>
       </c>
     </row>
@@ -7686,7 +7686,7 @@
       <c r="C520" t="n">
         <v>287</v>
       </c>
-      <c r="D520" s="3" t="n">
+      <c s="3" r="D520" t="n">
         <v>40518</v>
       </c>
     </row>
@@ -7700,7 +7700,7 @@
       <c r="C521" t="n">
         <v>814</v>
       </c>
-      <c r="D521" s="3" t="n">
+      <c s="3" r="D521" t="n">
         <v>40525</v>
       </c>
     </row>
@@ -7714,7 +7714,7 @@
       <c r="C522" t="n">
         <v>985</v>
       </c>
-      <c r="D522" s="3" t="n">
+      <c s="3" r="D522" t="n">
         <v>40532</v>
       </c>
     </row>
@@ -7728,7 +7728,7 @@
       <c r="C523" t="n">
         <v>75</v>
       </c>
-      <c r="D523" s="3" t="n">
+      <c s="3" r="D523" t="n">
         <v>40539</v>
       </c>
     </row>
@@ -7742,7 +7742,7 @@
       <c r="C524" t="n">
         <v>115</v>
       </c>
-      <c r="D524" s="3" t="n">
+      <c s="3" r="D524" t="n">
         <v>40546</v>
       </c>
     </row>
@@ -7756,7 +7756,7 @@
       <c r="C525" t="n">
         <v>34</v>
       </c>
-      <c r="D525" s="3" t="n">
+      <c s="3" r="D525" t="n">
         <v>40553</v>
       </c>
     </row>
@@ -7770,7 +7770,7 @@
       <c r="C526" t="n">
         <v>642</v>
       </c>
-      <c r="D526" s="3" t="n">
+      <c s="3" r="D526" t="n">
         <v>40560</v>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       <c r="C527" t="n">
         <v>885</v>
       </c>
-      <c r="D527" s="3" t="n">
+      <c s="3" r="D527" t="n">
         <v>40567</v>
       </c>
     </row>
@@ -7798,7 +7798,7 @@
       <c r="C528" t="n">
         <v>988</v>
       </c>
-      <c r="D528" s="3" t="n">
+      <c s="3" r="D528" t="n">
         <v>40574</v>
       </c>
     </row>
@@ -7812,7 +7812,7 @@
       <c r="C529" t="n">
         <v>622</v>
       </c>
-      <c r="D529" s="3" t="n">
+      <c s="3" r="D529" t="n">
         <v>40581</v>
       </c>
     </row>
@@ -7826,7 +7826,7 @@
       <c r="C530" t="n">
         <v>520</v>
       </c>
-      <c r="D530" s="3" t="n">
+      <c s="3" r="D530" t="n">
         <v>40588</v>
       </c>
     </row>
@@ -7840,7 +7840,7 @@
       <c r="C531" t="n">
         <v>58</v>
       </c>
-      <c r="D531" s="3" t="n">
+      <c s="3" r="D531" t="n">
         <v>40595</v>
       </c>
     </row>
@@ -7854,7 +7854,7 @@
       <c r="C532" t="n">
         <v>480</v>
       </c>
-      <c r="D532" s="3" t="n">
+      <c s="3" r="D532" t="n">
         <v>40602</v>
       </c>
     </row>
@@ -7868,7 +7868,7 @@
       <c r="C533" t="n">
         <v>146</v>
       </c>
-      <c r="D533" s="3" t="n">
+      <c s="3" r="D533" t="n">
         <v>40609</v>
       </c>
     </row>
@@ -7882,7 +7882,7 @@
       <c r="C534" t="n">
         <v>417</v>
       </c>
-      <c r="D534" s="3" t="n">
+      <c s="3" r="D534" t="n">
         <v>40616</v>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
       <c r="C535" t="n">
         <v>512</v>
       </c>
-      <c r="D535" s="3" t="n">
+      <c s="3" r="D535" t="n">
         <v>40623</v>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="C536" t="n">
         <v>844</v>
       </c>
-      <c r="D536" s="3" t="n">
+      <c s="3" r="D536" t="n">
         <v>40630</v>
       </c>
     </row>
@@ -7924,7 +7924,7 @@
       <c r="C537" t="n">
         <v>58</v>
       </c>
-      <c r="D537" s="3" t="n">
+      <c s="3" r="D537" t="n">
         <v>40637</v>
       </c>
     </row>
@@ -7938,7 +7938,7 @@
       <c r="C538" t="n">
         <v>663</v>
       </c>
-      <c r="D538" s="3" t="n">
+      <c s="3" r="D538" t="n">
         <v>40644</v>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
       <c r="C539" t="n">
         <v>892</v>
       </c>
-      <c r="D539" s="3" t="n">
+      <c s="3" r="D539" t="n">
         <v>40651</v>
       </c>
     </row>
@@ -7966,7 +7966,7 @@
       <c r="C540" t="n">
         <v>470</v>
       </c>
-      <c r="D540" s="3" t="n">
+      <c s="3" r="D540" t="n">
         <v>40658</v>
       </c>
     </row>
@@ -7980,7 +7980,7 @@
       <c r="C541" t="n">
         <v>544</v>
       </c>
-      <c r="D541" s="3" t="n">
+      <c s="3" r="D541" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -7994,7 +7994,7 @@
       <c r="C542" t="n">
         <v>852</v>
       </c>
-      <c r="D542" s="3" t="n">
+      <c s="3" r="D542" t="n">
         <v>40672</v>
       </c>
     </row>
@@ -8008,7 +8008,7 @@
       <c r="C543" t="n">
         <v>450</v>
       </c>
-      <c r="D543" s="3" t="n">
+      <c s="3" r="D543" t="n">
         <v>40679</v>
       </c>
     </row>
@@ -8022,7 +8022,7 @@
       <c r="C544" t="n">
         <v>52</v>
       </c>
-      <c r="D544" s="3" t="n">
+      <c s="3" r="D544" t="n">
         <v>40686</v>
       </c>
     </row>
@@ -8036,7 +8036,7 @@
       <c r="C545" t="n">
         <v>844</v>
       </c>
-      <c r="D545" s="3" t="n">
+      <c s="3" r="D545" t="n">
         <v>40693</v>
       </c>
     </row>
@@ -8050,7 +8050,7 @@
       <c r="C546" t="n">
         <v>321</v>
       </c>
-      <c r="D546" s="3" t="n">
+      <c s="3" r="D546" t="n">
         <v>40700</v>
       </c>
     </row>
@@ -8064,7 +8064,7 @@
       <c r="C547" t="n">
         <v>915</v>
       </c>
-      <c r="D547" s="3" t="n">
+      <c s="3" r="D547" t="n">
         <v>40707</v>
       </c>
     </row>
@@ -8078,7 +8078,7 @@
       <c r="C548" t="n">
         <v>480</v>
       </c>
-      <c r="D548" s="3" t="n">
+      <c s="3" r="D548" t="n">
         <v>40714</v>
       </c>
     </row>
@@ -8092,7 +8092,7 @@
       <c r="C549" t="n">
         <v>893</v>
       </c>
-      <c r="D549" s="3" t="n">
+      <c s="3" r="D549" t="n">
         <v>40721</v>
       </c>
     </row>
@@ -8106,7 +8106,7 @@
       <c r="C550" t="n">
         <v>582</v>
       </c>
-      <c r="D550" s="3" t="n">
+      <c s="3" r="D550" t="n">
         <v>40728</v>
       </c>
     </row>
@@ -8120,7 +8120,7 @@
       <c r="C551" t="n">
         <v>887</v>
       </c>
-      <c r="D551" s="3" t="n">
+      <c s="3" r="D551" t="n">
         <v>40735</v>
       </c>
     </row>
@@ -8134,7 +8134,7 @@
       <c r="C552" t="n">
         <v>674</v>
       </c>
-      <c r="D552" s="3" t="n">
+      <c s="3" r="D552" t="n">
         <v>40742</v>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
       <c r="C553" t="n">
         <v>776</v>
       </c>
-      <c r="D553" s="3" t="n">
+      <c s="3" r="D553" t="n">
         <v>40749</v>
       </c>
     </row>
@@ -8162,7 +8162,7 @@
       <c r="C554" t="n">
         <v>71</v>
       </c>
-      <c r="D554" s="3" t="n">
+      <c s="3" r="D554" t="n">
         <v>40756</v>
       </c>
     </row>
@@ -8176,7 +8176,7 @@
       <c r="C555" t="n">
         <v>658</v>
       </c>
-      <c r="D555" s="3" t="n">
+      <c s="3" r="D555" t="n">
         <v>40763</v>
       </c>
     </row>
@@ -8190,7 +8190,7 @@
       <c r="C556" t="n">
         <v>595</v>
       </c>
-      <c r="D556" s="3" t="n">
+      <c s="3" r="D556" t="n">
         <v>40770</v>
       </c>
     </row>
@@ -8204,7 +8204,7 @@
       <c r="C557" t="n">
         <v>46</v>
       </c>
-      <c r="D557" s="3" t="n">
+      <c s="3" r="D557" t="n">
         <v>40777</v>
       </c>
     </row>
@@ -8218,7 +8218,7 @@
       <c r="C558" t="n">
         <v>975</v>
       </c>
-      <c r="D558" s="3" t="n">
+      <c s="3" r="D558" t="n">
         <v>40784</v>
       </c>
     </row>
@@ -8232,7 +8232,7 @@
       <c r="C559" t="n">
         <v>281</v>
       </c>
-      <c r="D559" s="3" t="n">
+      <c s="3" r="D559" t="n">
         <v>40791</v>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
       <c r="C560" t="n">
         <v>684</v>
       </c>
-      <c r="D560" s="3" t="n">
+      <c s="3" r="D560" t="n">
         <v>40798</v>
       </c>
     </row>
@@ -8260,7 +8260,7 @@
       <c r="C561" t="n">
         <v>172</v>
       </c>
-      <c r="D561" s="3" t="n">
+      <c s="3" r="D561" t="n">
         <v>40805</v>
       </c>
     </row>
@@ -8274,7 +8274,7 @@
       <c r="C562" t="n">
         <v>878</v>
       </c>
-      <c r="D562" s="3" t="n">
+      <c s="3" r="D562" t="n">
         <v>40812</v>
       </c>
     </row>
@@ -8288,7 +8288,7 @@
       <c r="C563" t="n">
         <v>52</v>
       </c>
-      <c r="D563" s="3" t="n">
+      <c s="3" r="D563" t="n">
         <v>40819</v>
       </c>
     </row>
@@ -8302,7 +8302,7 @@
       <c r="C564" t="n">
         <v>122</v>
       </c>
-      <c r="D564" s="3" t="n">
+      <c s="3" r="D564" t="n">
         <v>40826</v>
       </c>
     </row>
@@ -8316,7 +8316,7 @@
       <c r="C565" t="n">
         <v>769</v>
       </c>
-      <c r="D565" s="3" t="n">
+      <c s="3" r="D565" t="n">
         <v>40833</v>
       </c>
     </row>
@@ -8330,7 +8330,7 @@
       <c r="C566" t="n">
         <v>263</v>
       </c>
-      <c r="D566" s="3" t="n">
+      <c s="3" r="D566" t="n">
         <v>40840</v>
       </c>
     </row>
@@ -8344,7 +8344,7 @@
       <c r="C567" t="n">
         <v>771</v>
       </c>
-      <c r="D567" s="3" t="n">
+      <c s="3" r="D567" t="n">
         <v>40847</v>
       </c>
     </row>
@@ -8358,7 +8358,7 @@
       <c r="C568" t="n">
         <v>430</v>
       </c>
-      <c r="D568" s="3" t="n">
+      <c s="3" r="D568" t="n">
         <v>40854</v>
       </c>
     </row>
@@ -8372,7 +8372,7 @@
       <c r="C569" t="n">
         <v>375</v>
       </c>
-      <c r="D569" s="3" t="n">
+      <c s="3" r="D569" t="n">
         <v>40861</v>
       </c>
     </row>
@@ -8386,7 +8386,7 @@
       <c r="C570" t="n">
         <v>264</v>
       </c>
-      <c r="D570" s="3" t="n">
+      <c s="3" r="D570" t="n">
         <v>40868</v>
       </c>
     </row>
@@ -8400,7 +8400,7 @@
       <c r="C571" t="n">
         <v>427</v>
       </c>
-      <c r="D571" s="3" t="n">
+      <c s="3" r="D571" t="n">
         <v>40875</v>
       </c>
     </row>
@@ -8414,7 +8414,7 @@
       <c r="C572" t="n">
         <v>732</v>
       </c>
-      <c r="D572" s="3" t="n">
+      <c s="3" r="D572" t="n">
         <v>40882</v>
       </c>
     </row>
@@ -8428,7 +8428,7 @@
       <c r="C573" t="n">
         <v>316</v>
       </c>
-      <c r="D573" s="3" t="n">
+      <c s="3" r="D573" t="n">
         <v>40889</v>
       </c>
     </row>
@@ -8442,7 +8442,7 @@
       <c r="C574" t="n">
         <v>120</v>
       </c>
-      <c r="D574" s="3" t="n">
+      <c s="3" r="D574" t="n">
         <v>40896</v>
       </c>
     </row>
@@ -8456,7 +8456,7 @@
       <c r="C575" t="n">
         <v>54</v>
       </c>
-      <c r="D575" s="3" t="n">
+      <c s="3" r="D575" t="n">
         <v>40903</v>
       </c>
     </row>
@@ -8470,7 +8470,7 @@
       <c r="C576" t="n">
         <v>384</v>
       </c>
-      <c r="D576" s="3" t="n">
+      <c s="3" r="D576" t="n">
         <v>40910</v>
       </c>
     </row>
@@ -8484,7 +8484,7 @@
       <c r="C577" t="n">
         <v>303</v>
       </c>
-      <c r="D577" s="3" t="n">
+      <c s="3" r="D577" t="n">
         <v>40917</v>
       </c>
     </row>
@@ -8498,7 +8498,7 @@
       <c r="C578" t="n">
         <v>465</v>
       </c>
-      <c r="D578" s="3" t="n">
+      <c s="3" r="D578" t="n">
         <v>40924</v>
       </c>
     </row>
@@ -8512,7 +8512,7 @@
       <c r="C579" t="n">
         <v>272</v>
       </c>
-      <c r="D579" s="3" t="n">
+      <c s="3" r="D579" t="n">
         <v>40931</v>
       </c>
     </row>
@@ -8526,7 +8526,7 @@
       <c r="C580" t="n">
         <v>803</v>
       </c>
-      <c r="D580" s="3" t="n">
+      <c s="3" r="D580" t="n">
         <v>40938</v>
       </c>
     </row>
@@ -8540,7 +8540,7 @@
       <c r="C581" t="n">
         <v>835</v>
       </c>
-      <c r="D581" s="3" t="n">
+      <c s="3" r="D581" t="n">
         <v>40945</v>
       </c>
     </row>
@@ -8554,7 +8554,7 @@
       <c r="C582" t="n">
         <v>609</v>
       </c>
-      <c r="D582" s="3" t="n">
+      <c s="3" r="D582" t="n">
         <v>40952</v>
       </c>
     </row>
@@ -8568,7 +8568,7 @@
       <c r="C583" t="n">
         <v>568</v>
       </c>
-      <c r="D583" s="3" t="n">
+      <c s="3" r="D583" t="n">
         <v>40959</v>
       </c>
     </row>
@@ -8582,7 +8582,7 @@
       <c r="C584" t="n">
         <v>933</v>
       </c>
-      <c r="D584" s="3" t="n">
+      <c s="3" r="D584" t="n">
         <v>40966</v>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       <c r="C585" t="n">
         <v>619</v>
       </c>
-      <c r="D585" s="3" t="n">
+      <c s="3" r="D585" t="n">
         <v>40973</v>
       </c>
     </row>
@@ -8610,7 +8610,7 @@
       <c r="C586" t="n">
         <v>672</v>
       </c>
-      <c r="D586" s="3" t="n">
+      <c s="3" r="D586" t="n">
         <v>40980</v>
       </c>
     </row>
@@ -8624,7 +8624,7 @@
       <c r="C587" t="n">
         <v>752</v>
       </c>
-      <c r="D587" s="3" t="n">
+      <c s="3" r="D587" t="n">
         <v>40987</v>
       </c>
     </row>
@@ -8638,7 +8638,7 @@
       <c r="C588" t="n">
         <v>161</v>
       </c>
-      <c r="D588" s="3" t="n">
+      <c s="3" r="D588" t="n">
         <v>40994</v>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
       <c r="C589" t="n">
         <v>342</v>
       </c>
-      <c r="D589" s="3" t="n">
+      <c s="3" r="D589" t="n">
         <v>41001</v>
       </c>
     </row>
@@ -8666,7 +8666,7 @@
       <c r="C590" t="n">
         <v>48</v>
       </c>
-      <c r="D590" s="3" t="n">
+      <c s="3" r="D590" t="n">
         <v>41008</v>
       </c>
     </row>
@@ -8680,7 +8680,7 @@
       <c r="C591" t="n">
         <v>519</v>
       </c>
-      <c r="D591" s="3" t="n">
+      <c s="3" r="D591" t="n">
         <v>41015</v>
       </c>
     </row>
@@ -8694,7 +8694,7 @@
       <c r="C592" t="n">
         <v>315</v>
       </c>
-      <c r="D592" s="3" t="n">
+      <c s="3" r="D592" t="n">
         <v>41022</v>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
       <c r="C593" t="n">
         <v>276</v>
       </c>
-      <c r="D593" s="3" t="n">
+      <c s="3" r="D593" t="n">
         <v>41029</v>
       </c>
     </row>
@@ -8722,7 +8722,7 @@
       <c r="C594" t="n">
         <v>156</v>
       </c>
-      <c r="D594" s="3" t="n">
+      <c s="3" r="D594" t="n">
         <v>41036</v>
       </c>
     </row>
@@ -8736,7 +8736,7 @@
       <c r="C595" t="n">
         <v>336</v>
       </c>
-      <c r="D595" s="3" t="n">
+      <c s="3" r="D595" t="n">
         <v>41043</v>
       </c>
     </row>
@@ -8750,7 +8750,7 @@
       <c r="C596" t="n">
         <v>521</v>
       </c>
-      <c r="D596" s="3" t="n">
+      <c s="3" r="D596" t="n">
         <v>41050</v>
       </c>
     </row>
@@ -8764,7 +8764,7 @@
       <c r="C597" t="n">
         <v>899</v>
       </c>
-      <c r="D597" s="3" t="n">
+      <c s="3" r="D597" t="n">
         <v>41057</v>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
       <c r="C598" t="n">
         <v>989</v>
       </c>
-      <c r="D598" s="3" t="n">
+      <c s="3" r="D598" t="n">
         <v>41064</v>
       </c>
     </row>
@@ -8792,7 +8792,7 @@
       <c r="C599" t="n">
         <v>40</v>
       </c>
-      <c r="D599" s="3" t="n">
+      <c s="3" r="D599" t="n">
         <v>41071</v>
       </c>
     </row>
@@ -8806,7 +8806,7 @@
       <c r="C600" t="n">
         <v>305</v>
       </c>
-      <c r="D600" s="3" t="n">
+      <c s="3" r="D600" t="n">
         <v>41078</v>
       </c>
     </row>
@@ -8820,7 +8820,7 @@
       <c r="C601" t="n">
         <v>599</v>
       </c>
-      <c r="D601" s="3" t="n">
+      <c s="3" r="D601" t="n">
         <v>41085</v>
       </c>
     </row>
@@ -8834,7 +8834,7 @@
       <c r="C602" t="n">
         <v>131</v>
       </c>
-      <c r="D602" s="3" t="n">
+      <c s="3" r="D602" t="n">
         <v>41092</v>
       </c>
     </row>
@@ -8848,7 +8848,7 @@
       <c r="C603" t="n">
         <v>146</v>
       </c>
-      <c r="D603" s="3" t="n">
+      <c s="3" r="D603" t="n">
         <v>41099</v>
       </c>
     </row>
@@ -8862,7 +8862,7 @@
       <c r="C604" t="n">
         <v>563</v>
       </c>
-      <c r="D604" s="3" t="n">
+      <c s="3" r="D604" t="n">
         <v>41106</v>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
       <c r="C605" t="n">
         <v>635</v>
       </c>
-      <c r="D605" s="3" t="n">
+      <c s="3" r="D605" t="n">
         <v>41113</v>
       </c>
     </row>
@@ -8890,7 +8890,7 @@
       <c r="C606" t="n">
         <v>262</v>
       </c>
-      <c r="D606" s="3" t="n">
+      <c s="3" r="D606" t="n">
         <v>41120</v>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
       <c r="C607" t="n">
         <v>584</v>
       </c>
-      <c r="D607" s="3" t="n">
+      <c s="3" r="D607" t="n">
         <v>41127</v>
       </c>
     </row>
@@ -8918,7 +8918,7 @@
       <c r="C608" t="n">
         <v>496</v>
       </c>
-      <c r="D608" s="3" t="n">
+      <c s="3" r="D608" t="n">
         <v>41134</v>
       </c>
     </row>
@@ -8932,7 +8932,7 @@
       <c r="C609" t="n">
         <v>513</v>
       </c>
-      <c r="D609" s="3" t="n">
+      <c s="3" r="D609" t="n">
         <v>41141</v>
       </c>
     </row>
@@ -8946,7 +8946,7 @@
       <c r="C610" t="n">
         <v>188</v>
       </c>
-      <c r="D610" s="3" t="n">
+      <c s="3" r="D610" t="n">
         <v>41148</v>
       </c>
     </row>
@@ -8960,7 +8960,7 @@
       <c r="C611" t="n">
         <v>525</v>
       </c>
-      <c r="D611" s="3" t="n">
+      <c s="3" r="D611" t="n">
         <v>41155</v>
       </c>
     </row>
@@ -8974,7 +8974,7 @@
       <c r="C612" t="n">
         <v>681</v>
       </c>
-      <c r="D612" s="3" t="n">
+      <c s="3" r="D612" t="n">
         <v>41162</v>
       </c>
     </row>
@@ -8988,7 +8988,7 @@
       <c r="C613" t="n">
         <v>240</v>
       </c>
-      <c r="D613" s="3" t="n">
+      <c s="3" r="D613" t="n">
         <v>41169</v>
       </c>
     </row>
@@ -9002,7 +9002,7 @@
       <c r="C614" t="n">
         <v>264</v>
       </c>
-      <c r="D614" s="3" t="n">
+      <c s="3" r="D614" t="n">
         <v>41176</v>
       </c>
     </row>
@@ -9016,7 +9016,7 @@
       <c r="C615" t="n">
         <v>499</v>
       </c>
-      <c r="D615" s="3" t="n">
+      <c s="3" r="D615" t="n">
         <v>41183</v>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
       <c r="C616" t="n">
         <v>999</v>
       </c>
-      <c r="D616" s="3" t="n">
+      <c s="3" r="D616" t="n">
         <v>41190</v>
       </c>
     </row>
@@ -9044,7 +9044,7 @@
       <c r="C617" t="n">
         <v>368</v>
       </c>
-      <c r="D617" s="3" t="n">
+      <c s="3" r="D617" t="n">
         <v>41197</v>
       </c>
     </row>
@@ -9058,7 +9058,7 @@
       <c r="C618" t="n">
         <v>210</v>
       </c>
-      <c r="D618" s="3" t="n">
+      <c s="3" r="D618" t="n">
         <v>41204</v>
       </c>
     </row>
@@ -9072,7 +9072,7 @@
       <c r="C619" t="n">
         <v>305</v>
       </c>
-      <c r="D619" s="3" t="n">
+      <c s="3" r="D619" t="n">
         <v>41211</v>
       </c>
     </row>
@@ -9086,7 +9086,7 @@
       <c r="C620" t="n">
         <v>976</v>
       </c>
-      <c r="D620" s="3" t="n">
+      <c s="3" r="D620" t="n">
         <v>41218</v>
       </c>
     </row>
@@ -9100,7 +9100,7 @@
       <c r="C621" t="n">
         <v>842</v>
       </c>
-      <c r="D621" s="3" t="n">
+      <c s="3" r="D621" t="n">
         <v>41225</v>
       </c>
     </row>
@@ -9114,7 +9114,7 @@
       <c r="C622" t="n">
         <v>333</v>
       </c>
-      <c r="D622" s="3" t="n">
+      <c s="3" r="D622" t="n">
         <v>41232</v>
       </c>
     </row>
@@ -9128,7 +9128,7 @@
       <c r="C623" t="n">
         <v>817</v>
       </c>
-      <c r="D623" s="3" t="n">
+      <c s="3" r="D623" t="n">
         <v>41239</v>
       </c>
     </row>
@@ -9142,7 +9142,7 @@
       <c r="C624" t="n">
         <v>424</v>
       </c>
-      <c r="D624" s="3" t="n">
+      <c s="3" r="D624" t="n">
         <v>41246</v>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
       <c r="C625" t="n">
         <v>220</v>
       </c>
-      <c r="D625" s="3" t="n">
+      <c s="3" r="D625" t="n">
         <v>41253</v>
       </c>
     </row>
@@ -9170,7 +9170,7 @@
       <c r="C626" t="n">
         <v>98</v>
       </c>
-      <c r="D626" s="3" t="n">
+      <c s="3" r="D626" t="n">
         <v>41260</v>
       </c>
     </row>
@@ -9184,7 +9184,7 @@
       <c r="C627" t="n">
         <v>199</v>
       </c>
-      <c r="D627" s="3" t="n">
+      <c s="3" r="D627" t="n">
         <v>41267</v>
       </c>
     </row>
@@ -9198,7 +9198,7 @@
       <c r="C628" t="n">
         <v>429</v>
       </c>
-      <c r="D628" s="3" t="n">
+      <c s="3" r="D628" t="n">
         <v>41274</v>
       </c>
     </row>
@@ -9212,7 +9212,7 @@
       <c r="C629" t="n">
         <v>25</v>
       </c>
-      <c r="D629" s="3" t="n">
+      <c s="3" r="D629" t="n">
         <v>39818</v>
       </c>
     </row>
@@ -9226,7 +9226,7 @@
       <c r="C630" t="n">
         <v>758</v>
       </c>
-      <c r="D630" s="3" t="n">
+      <c s="3" r="D630" t="n">
         <v>39825</v>
       </c>
     </row>
@@ -9240,7 +9240,7 @@
       <c r="C631" t="n">
         <v>878</v>
       </c>
-      <c r="D631" s="3" t="n">
+      <c s="3" r="D631" t="n">
         <v>39832</v>
       </c>
     </row>
@@ -9254,7 +9254,7 @@
       <c r="C632" t="n">
         <v>460</v>
       </c>
-      <c r="D632" s="3" t="n">
+      <c s="3" r="D632" t="n">
         <v>39839</v>
       </c>
     </row>
@@ -9268,7 +9268,7 @@
       <c r="C633" t="n">
         <v>116</v>
       </c>
-      <c r="D633" s="3" t="n">
+      <c s="3" r="D633" t="n">
         <v>39846</v>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
       <c r="C634" t="n">
         <v>522</v>
       </c>
-      <c r="D634" s="3" t="n">
+      <c s="3" r="D634" t="n">
         <v>39853</v>
       </c>
     </row>
@@ -9296,7 +9296,7 @@
       <c r="C635" t="n">
         <v>953</v>
       </c>
-      <c r="D635" s="3" t="n">
+      <c s="3" r="D635" t="n">
         <v>39860</v>
       </c>
     </row>
@@ -9310,7 +9310,7 @@
       <c r="C636" t="n">
         <v>279</v>
       </c>
-      <c r="D636" s="3" t="n">
+      <c s="3" r="D636" t="n">
         <v>39867</v>
       </c>
     </row>
@@ -9324,7 +9324,7 @@
       <c r="C637" t="n">
         <v>495</v>
       </c>
-      <c r="D637" s="3" t="n">
+      <c s="3" r="D637" t="n">
         <v>39874</v>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
       <c r="C638" t="n">
         <v>109</v>
       </c>
-      <c r="D638" s="3" t="n">
+      <c s="3" r="D638" t="n">
         <v>39881</v>
       </c>
     </row>
@@ -9352,7 +9352,7 @@
       <c r="C639" t="n">
         <v>764</v>
       </c>
-      <c r="D639" s="3" t="n">
+      <c s="3" r="D639" t="n">
         <v>39888</v>
       </c>
     </row>
@@ -9366,7 +9366,7 @@
       <c r="C640" t="n">
         <v>490</v>
       </c>
-      <c r="D640" s="3" t="n">
+      <c s="3" r="D640" t="n">
         <v>39895</v>
       </c>
     </row>
@@ -9380,7 +9380,7 @@
       <c r="C641" t="n">
         <v>403</v>
       </c>
-      <c r="D641" s="3" t="n">
+      <c s="3" r="D641" t="n">
         <v>39902</v>
       </c>
     </row>
@@ -9394,7 +9394,7 @@
       <c r="C642" t="n">
         <v>158</v>
       </c>
-      <c r="D642" s="3" t="n">
+      <c s="3" r="D642" t="n">
         <v>39909</v>
       </c>
     </row>
@@ -9408,7 +9408,7 @@
       <c r="C643" t="n">
         <v>164</v>
       </c>
-      <c r="D643" s="3" t="n">
+      <c s="3" r="D643" t="n">
         <v>39916</v>
       </c>
     </row>
@@ -9422,7 +9422,7 @@
       <c r="C644" t="n">
         <v>94</v>
       </c>
-      <c r="D644" s="3" t="n">
+      <c s="3" r="D644" t="n">
         <v>39923</v>
       </c>
     </row>
@@ -9436,7 +9436,7 @@
       <c r="C645" t="n">
         <v>290</v>
       </c>
-      <c r="D645" s="3" t="n">
+      <c s="3" r="D645" t="n">
         <v>39930</v>
       </c>
     </row>
@@ -9450,7 +9450,7 @@
       <c r="C646" t="n">
         <v>711</v>
       </c>
-      <c r="D646" s="3" t="n">
+      <c s="3" r="D646" t="n">
         <v>39937</v>
       </c>
     </row>
@@ -9464,7 +9464,7 @@
       <c r="C647" t="n">
         <v>355</v>
       </c>
-      <c r="D647" s="3" t="n">
+      <c s="3" r="D647" t="n">
         <v>39944</v>
       </c>
     </row>
@@ -9478,7 +9478,7 @@
       <c r="C648" t="n">
         <v>246</v>
       </c>
-      <c r="D648" s="3" t="n">
+      <c s="3" r="D648" t="n">
         <v>39951</v>
       </c>
     </row>
@@ -9492,7 +9492,7 @@
       <c r="C649" t="n">
         <v>185</v>
       </c>
-      <c r="D649" s="3" t="n">
+      <c s="3" r="D649" t="n">
         <v>39958</v>
       </c>
     </row>
@@ -9506,7 +9506,7 @@
       <c r="C650" t="n">
         <v>447</v>
       </c>
-      <c r="D650" s="3" t="n">
+      <c s="3" r="D650" t="n">
         <v>39965</v>
       </c>
     </row>
@@ -9520,7 +9520,7 @@
       <c r="C651" t="n">
         <v>579</v>
       </c>
-      <c r="D651" s="3" t="n">
+      <c s="3" r="D651" t="n">
         <v>39972</v>
       </c>
     </row>
@@ -9534,7 +9534,7 @@
       <c r="C652" t="n">
         <v>856</v>
       </c>
-      <c r="D652" s="3" t="n">
+      <c s="3" r="D652" t="n">
         <v>39979</v>
       </c>
     </row>
@@ -9548,7 +9548,7 @@
       <c r="C653" t="n">
         <v>176</v>
       </c>
-      <c r="D653" s="3" t="n">
+      <c s="3" r="D653" t="n">
         <v>39986</v>
       </c>
     </row>
@@ -9562,7 +9562,7 @@
       <c r="C654" t="n">
         <v>449</v>
       </c>
-      <c r="D654" s="3" t="n">
+      <c s="3" r="D654" t="n">
         <v>39993</v>
       </c>
     </row>
@@ -9576,7 +9576,7 @@
       <c r="C655" t="n">
         <v>600</v>
       </c>
-      <c r="D655" s="3" t="n">
+      <c s="3" r="D655" t="n">
         <v>40000</v>
       </c>
     </row>
@@ -9590,7 +9590,7 @@
       <c r="C656" t="n">
         <v>600</v>
       </c>
-      <c r="D656" s="3" t="n">
+      <c s="3" r="D656" t="n">
         <v>40007</v>
       </c>
     </row>
@@ -9604,7 +9604,7 @@
       <c r="C657" t="n">
         <v>184</v>
       </c>
-      <c r="D657" s="3" t="n">
+      <c s="3" r="D657" t="n">
         <v>40014</v>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       <c r="C658" t="n">
         <v>299</v>
       </c>
-      <c r="D658" s="3" t="n">
+      <c s="3" r="D658" t="n">
         <v>40021</v>
       </c>
     </row>
@@ -9632,7 +9632,7 @@
       <c r="C659" t="n">
         <v>193</v>
       </c>
-      <c r="D659" s="3" t="n">
+      <c s="3" r="D659" t="n">
         <v>40028</v>
       </c>
     </row>
@@ -9646,7 +9646,7 @@
       <c r="C660" t="n">
         <v>286</v>
       </c>
-      <c r="D660" s="3" t="n">
+      <c s="3" r="D660" t="n">
         <v>40035</v>
       </c>
     </row>
@@ -9660,7 +9660,7 @@
       <c r="C661" t="n">
         <v>137</v>
       </c>
-      <c r="D661" s="3" t="n">
+      <c s="3" r="D661" t="n">
         <v>40042</v>
       </c>
     </row>
@@ -9674,7 +9674,7 @@
       <c r="C662" t="n">
         <v>501</v>
       </c>
-      <c r="D662" s="3" t="n">
+      <c s="3" r="D662" t="n">
         <v>40049</v>
       </c>
     </row>
@@ -9688,7 +9688,7 @@
       <c r="C663" t="n">
         <v>488</v>
       </c>
-      <c r="D663" s="3" t="n">
+      <c s="3" r="D663" t="n">
         <v>40056</v>
       </c>
     </row>
@@ -9702,7 +9702,7 @@
       <c r="C664" t="n">
         <v>129</v>
       </c>
-      <c r="D664" s="3" t="n">
+      <c s="3" r="D664" t="n">
         <v>40063</v>
       </c>
     </row>
@@ -9716,7 +9716,7 @@
       <c r="C665" t="n">
         <v>515</v>
       </c>
-      <c r="D665" s="3" t="n">
+      <c s="3" r="D665" t="n">
         <v>40070</v>
       </c>
     </row>
@@ -9730,7 +9730,7 @@
       <c r="C666" t="n">
         <v>363</v>
       </c>
-      <c r="D666" s="3" t="n">
+      <c s="3" r="D666" t="n">
         <v>40077</v>
       </c>
     </row>
@@ -9744,7 +9744,7 @@
       <c r="C667" t="n">
         <v>483</v>
       </c>
-      <c r="D667" s="3" t="n">
+      <c s="3" r="D667" t="n">
         <v>40084</v>
       </c>
     </row>
@@ -9758,7 +9758,7 @@
       <c r="C668" t="n">
         <v>705</v>
       </c>
-      <c r="D668" s="3" t="n">
+      <c s="3" r="D668" t="n">
         <v>40091</v>
       </c>
     </row>
@@ -9772,7 +9772,7 @@
       <c r="C669" t="n">
         <v>690</v>
       </c>
-      <c r="D669" s="3" t="n">
+      <c s="3" r="D669" t="n">
         <v>40098</v>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
       <c r="C670" t="n">
         <v>221</v>
       </c>
-      <c r="D670" s="3" t="n">
+      <c s="3" r="D670" t="n">
         <v>40105</v>
       </c>
     </row>
@@ -9800,7 +9800,7 @@
       <c r="C671" t="n">
         <v>970</v>
       </c>
-      <c r="D671" s="3" t="n">
+      <c s="3" r="D671" t="n">
         <v>40112</v>
       </c>
     </row>
@@ -9814,7 +9814,7 @@
       <c r="C672" t="n">
         <v>107</v>
       </c>
-      <c r="D672" s="3" t="n">
+      <c s="3" r="D672" t="n">
         <v>40119</v>
       </c>
     </row>
@@ -9828,7 +9828,7 @@
       <c r="C673" t="n">
         <v>394</v>
       </c>
-      <c r="D673" s="3" t="n">
+      <c s="3" r="D673" t="n">
         <v>40126</v>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       <c r="C674" t="n">
         <v>751</v>
       </c>
-      <c r="D674" s="3" t="n">
+      <c s="3" r="D674" t="n">
         <v>40133</v>
       </c>
     </row>
@@ -9856,7 +9856,7 @@
       <c r="C675" t="n">
         <v>583</v>
       </c>
-      <c r="D675" s="3" t="n">
+      <c s="3" r="D675" t="n">
         <v>40140</v>
       </c>
     </row>
@@ -9870,7 +9870,7 @@
       <c r="C676" t="n">
         <v>38</v>
       </c>
-      <c r="D676" s="3" t="n">
+      <c s="3" r="D676" t="n">
         <v>40147</v>
       </c>
     </row>
@@ -9884,7 +9884,7 @@
       <c r="C677" t="n">
         <v>46</v>
       </c>
-      <c r="D677" s="3" t="n">
+      <c s="3" r="D677" t="n">
         <v>40154</v>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       <c r="C678" t="n">
         <v>105</v>
       </c>
-      <c r="D678" s="3" t="n">
+      <c s="3" r="D678" t="n">
         <v>40161</v>
       </c>
     </row>
@@ -9912,7 +9912,7 @@
       <c r="C679" t="n">
         <v>783</v>
       </c>
-      <c r="D679" s="3" t="n">
+      <c s="3" r="D679" t="n">
         <v>40168</v>
       </c>
     </row>
@@ -9926,7 +9926,7 @@
       <c r="C680" t="n">
         <v>490</v>
       </c>
-      <c r="D680" s="3" t="n">
+      <c s="3" r="D680" t="n">
         <v>40175</v>
       </c>
     </row>
@@ -9940,7 +9940,7 @@
       <c r="C681" t="n">
         <v>631</v>
       </c>
-      <c r="D681" s="3" t="n">
+      <c s="3" r="D681" t="n">
         <v>40182</v>
       </c>
     </row>
@@ -9954,7 +9954,7 @@
       <c r="C682" t="n">
         <v>649</v>
       </c>
-      <c r="D682" s="3" t="n">
+      <c s="3" r="D682" t="n">
         <v>40189</v>
       </c>
     </row>
@@ -9968,7 +9968,7 @@
       <c r="C683" t="n">
         <v>330</v>
       </c>
-      <c r="D683" s="3" t="n">
+      <c s="3" r="D683" t="n">
         <v>40196</v>
       </c>
     </row>
@@ -9982,7 +9982,7 @@
       <c r="C684" t="n">
         <v>76</v>
       </c>
-      <c r="D684" s="3" t="n">
+      <c s="3" r="D684" t="n">
         <v>40203</v>
       </c>
     </row>
@@ -9996,7 +9996,7 @@
       <c r="C685" t="n">
         <v>167</v>
       </c>
-      <c r="D685" s="3" t="n">
+      <c s="3" r="D685" t="n">
         <v>40210</v>
       </c>
     </row>
@@ -10010,7 +10010,7 @@
       <c r="C686" t="n">
         <v>183</v>
       </c>
-      <c r="D686" s="3" t="n">
+      <c s="3" r="D686" t="n">
         <v>40217</v>
       </c>
     </row>
@@ -10024,7 +10024,7 @@
       <c r="C687" t="n">
         <v>35</v>
       </c>
-      <c r="D687" s="3" t="n">
+      <c s="3" r="D687" t="n">
         <v>40224</v>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
       <c r="C688" t="n">
         <v>285</v>
       </c>
-      <c r="D688" s="3" t="n">
+      <c s="3" r="D688" t="n">
         <v>40231</v>
       </c>
     </row>
@@ -10052,7 +10052,7 @@
       <c r="C689" t="n">
         <v>928</v>
       </c>
-      <c r="D689" s="3" t="n">
+      <c s="3" r="D689" t="n">
         <v>40238</v>
       </c>
     </row>
@@ -10066,7 +10066,7 @@
       <c r="C690" t="n">
         <v>207</v>
       </c>
-      <c r="D690" s="3" t="n">
+      <c s="3" r="D690" t="n">
         <v>40245</v>
       </c>
     </row>
@@ -10080,7 +10080,7 @@
       <c r="C691" t="n">
         <v>852</v>
       </c>
-      <c r="D691" s="3" t="n">
+      <c s="3" r="D691" t="n">
         <v>40252</v>
       </c>
     </row>
@@ -10094,7 +10094,7 @@
       <c r="C692" t="n">
         <v>123</v>
       </c>
-      <c r="D692" s="3" t="n">
+      <c s="3" r="D692" t="n">
         <v>40259</v>
       </c>
     </row>
@@ -10108,7 +10108,7 @@
       <c r="C693" t="n">
         <v>834</v>
       </c>
-      <c r="D693" s="3" t="n">
+      <c s="3" r="D693" t="n">
         <v>40266</v>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="C694" t="n">
         <v>60</v>
       </c>
-      <c r="D694" s="3" t="n">
+      <c s="3" r="D694" t="n">
         <v>40273</v>
       </c>
     </row>
@@ -10136,7 +10136,7 @@
       <c r="C695" t="n">
         <v>139</v>
       </c>
-      <c r="D695" s="3" t="n">
+      <c s="3" r="D695" t="n">
         <v>40280</v>
       </c>
     </row>
@@ -10150,7 +10150,7 @@
       <c r="C696" t="n">
         <v>209</v>
       </c>
-      <c r="D696" s="3" t="n">
+      <c s="3" r="D696" t="n">
         <v>40287</v>
       </c>
     </row>
@@ -10164,7 +10164,7 @@
       <c r="C697" t="n">
         <v>919</v>
       </c>
-      <c r="D697" s="3" t="n">
+      <c s="3" r="D697" t="n">
         <v>40294</v>
       </c>
     </row>
@@ -10178,7 +10178,7 @@
       <c r="C698" t="n">
         <v>678</v>
       </c>
-      <c r="D698" s="3" t="n">
+      <c s="3" r="D698" t="n">
         <v>40301</v>
       </c>
     </row>
@@ -10192,7 +10192,7 @@
       <c r="C699" t="n">
         <v>275</v>
       </c>
-      <c r="D699" s="3" t="n">
+      <c s="3" r="D699" t="n">
         <v>40308</v>
       </c>
     </row>
@@ -10206,7 +10206,7 @@
       <c r="C700" t="n">
         <v>292</v>
       </c>
-      <c r="D700" s="3" t="n">
+      <c s="3" r="D700" t="n">
         <v>40315</v>
       </c>
     </row>
@@ -10220,7 +10220,7 @@
       <c r="C701" t="n">
         <v>973</v>
       </c>
-      <c r="D701" s="3" t="n">
+      <c s="3" r="D701" t="n">
         <v>40322</v>
       </c>
     </row>
@@ -10234,7 +10234,7 @@
       <c r="C702" t="n">
         <v>390</v>
       </c>
-      <c r="D702" s="3" t="n">
+      <c s="3" r="D702" t="n">
         <v>40329</v>
       </c>
     </row>
@@ -10248,7 +10248,7 @@
       <c r="C703" t="n">
         <v>859</v>
       </c>
-      <c r="D703" s="3" t="n">
+      <c s="3" r="D703" t="n">
         <v>40336</v>
       </c>
     </row>
@@ -10262,7 +10262,7 @@
       <c r="C704" t="n">
         <v>686</v>
       </c>
-      <c r="D704" s="3" t="n">
+      <c s="3" r="D704" t="n">
         <v>40343</v>
       </c>
     </row>
@@ -10276,7 +10276,7 @@
       <c r="C705" t="n">
         <v>618</v>
       </c>
-      <c r="D705" s="3" t="n">
+      <c s="3" r="D705" t="n">
         <v>40350</v>
       </c>
     </row>
@@ -10290,7 +10290,7 @@
       <c r="C706" t="n">
         <v>659</v>
       </c>
-      <c r="D706" s="3" t="n">
+      <c s="3" r="D706" t="n">
         <v>40357</v>
       </c>
     </row>
@@ -10304,7 +10304,7 @@
       <c r="C707" t="n">
         <v>119</v>
       </c>
-      <c r="D707" s="3" t="n">
+      <c s="3" r="D707" t="n">
         <v>40364</v>
       </c>
     </row>
@@ -10318,7 +10318,7 @@
       <c r="C708" t="n">
         <v>407</v>
       </c>
-      <c r="D708" s="3" t="n">
+      <c s="3" r="D708" t="n">
         <v>40371</v>
       </c>
     </row>
@@ -10332,7 +10332,7 @@
       <c r="C709" t="n">
         <v>955</v>
       </c>
-      <c r="D709" s="3" t="n">
+      <c s="3" r="D709" t="n">
         <v>40378</v>
       </c>
     </row>
@@ -10346,7 +10346,7 @@
       <c r="C710" t="n">
         <v>726</v>
       </c>
-      <c r="D710" s="3" t="n">
+      <c s="3" r="D710" t="n">
         <v>40385</v>
       </c>
     </row>
@@ -10360,7 +10360,7 @@
       <c r="C711" t="n">
         <v>500</v>
       </c>
-      <c r="D711" s="3" t="n">
+      <c s="3" r="D711" t="n">
         <v>40392</v>
       </c>
     </row>
@@ -10374,7 +10374,7 @@
       <c r="C712" t="n">
         <v>110</v>
       </c>
-      <c r="D712" s="3" t="n">
+      <c s="3" r="D712" t="n">
         <v>40399</v>
       </c>
     </row>
@@ -10388,7 +10388,7 @@
       <c r="C713" t="n">
         <v>268</v>
       </c>
-      <c r="D713" s="3" t="n">
+      <c s="3" r="D713" t="n">
         <v>40406</v>
       </c>
     </row>
@@ -10402,7 +10402,7 @@
       <c r="C714" t="n">
         <v>85</v>
       </c>
-      <c r="D714" s="3" t="n">
+      <c s="3" r="D714" t="n">
         <v>40413</v>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
       <c r="C715" t="n">
         <v>764</v>
       </c>
-      <c r="D715" s="3" t="n">
+      <c s="3" r="D715" t="n">
         <v>40420</v>
       </c>
     </row>
@@ -10430,7 +10430,7 @@
       <c r="C716" t="n">
         <v>268</v>
       </c>
-      <c r="D716" s="3" t="n">
+      <c s="3" r="D716" t="n">
         <v>40427</v>
       </c>
     </row>
@@ -10444,7 +10444,7 @@
       <c r="C717" t="n">
         <v>501</v>
       </c>
-      <c r="D717" s="3" t="n">
+      <c s="3" r="D717" t="n">
         <v>40434</v>
       </c>
     </row>
@@ -10458,7 +10458,7 @@
       <c r="C718" t="n">
         <v>379</v>
       </c>
-      <c r="D718" s="3" t="n">
+      <c s="3" r="D718" t="n">
         <v>40441</v>
       </c>
     </row>
@@ -10472,7 +10472,7 @@
       <c r="C719" t="n">
         <v>372</v>
       </c>
-      <c r="D719" s="3" t="n">
+      <c s="3" r="D719" t="n">
         <v>40448</v>
       </c>
     </row>
@@ -10486,7 +10486,7 @@
       <c r="C720" t="n">
         <v>227</v>
       </c>
-      <c r="D720" s="3" t="n">
+      <c s="3" r="D720" t="n">
         <v>40455</v>
       </c>
     </row>
@@ -10500,7 +10500,7 @@
       <c r="C721" t="n">
         <v>673</v>
       </c>
-      <c r="D721" s="3" t="n">
+      <c s="3" r="D721" t="n">
         <v>40462</v>
       </c>
     </row>
@@ -10514,7 +10514,7 @@
       <c r="C722" t="n">
         <v>740</v>
       </c>
-      <c r="D722" s="3" t="n">
+      <c s="3" r="D722" t="n">
         <v>40469</v>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       <c r="C723" t="n">
         <v>234</v>
       </c>
-      <c r="D723" s="3" t="n">
+      <c s="3" r="D723" t="n">
         <v>40476</v>
       </c>
     </row>
@@ -10542,7 +10542,7 @@
       <c r="C724" t="n">
         <v>692</v>
       </c>
-      <c r="D724" s="3" t="n">
+      <c s="3" r="D724" t="n">
         <v>40483</v>
       </c>
     </row>
@@ -10556,7 +10556,7 @@
       <c r="C725" t="n">
         <v>434</v>
       </c>
-      <c r="D725" s="3" t="n">
+      <c s="3" r="D725" t="n">
         <v>40490</v>
       </c>
     </row>
@@ -10570,7 +10570,7 @@
       <c r="C726" t="n">
         <v>701</v>
       </c>
-      <c r="D726" s="3" t="n">
+      <c s="3" r="D726" t="n">
         <v>40497</v>
       </c>
     </row>
@@ -10584,7 +10584,7 @@
       <c r="C727" t="n">
         <v>423</v>
       </c>
-      <c r="D727" s="3" t="n">
+      <c s="3" r="D727" t="n">
         <v>40504</v>
       </c>
     </row>
@@ -10598,7 +10598,7 @@
       <c r="C728" t="n">
         <v>412</v>
       </c>
-      <c r="D728" s="3" t="n">
+      <c s="3" r="D728" t="n">
         <v>40511</v>
       </c>
     </row>
@@ -10612,7 +10612,7 @@
       <c r="C729" t="n">
         <v>117</v>
       </c>
-      <c r="D729" s="3" t="n">
+      <c s="3" r="D729" t="n">
         <v>40518</v>
       </c>
     </row>
@@ -10626,7 +10626,7 @@
       <c r="C730" t="n">
         <v>621</v>
       </c>
-      <c r="D730" s="3" t="n">
+      <c s="3" r="D730" t="n">
         <v>40525</v>
       </c>
     </row>
@@ -10640,7 +10640,7 @@
       <c r="C731" t="n">
         <v>481</v>
       </c>
-      <c r="D731" s="3" t="n">
+      <c s="3" r="D731" t="n">
         <v>40532</v>
       </c>
     </row>
@@ -10654,7 +10654,7 @@
       <c r="C732" t="n">
         <v>324</v>
       </c>
-      <c r="D732" s="3" t="n">
+      <c s="3" r="D732" t="n">
         <v>40539</v>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
       <c r="C733" t="n">
         <v>252</v>
       </c>
-      <c r="D733" s="3" t="n">
+      <c s="3" r="D733" t="n">
         <v>40546</v>
       </c>
     </row>
@@ -10682,7 +10682,7 @@
       <c r="C734" t="n">
         <v>289</v>
       </c>
-      <c r="D734" s="3" t="n">
+      <c s="3" r="D734" t="n">
         <v>40553</v>
       </c>
     </row>
@@ -10696,7 +10696,7 @@
       <c r="C735" t="n">
         <v>208</v>
       </c>
-      <c r="D735" s="3" t="n">
+      <c s="3" r="D735" t="n">
         <v>40560</v>
       </c>
     </row>
@@ -10710,7 +10710,7 @@
       <c r="C736" t="n">
         <v>682</v>
       </c>
-      <c r="D736" s="3" t="n">
+      <c s="3" r="D736" t="n">
         <v>40567</v>
       </c>
     </row>
@@ -10724,7 +10724,7 @@
       <c r="C737" t="n">
         <v>647</v>
       </c>
-      <c r="D737" s="3" t="n">
+      <c s="3" r="D737" t="n">
         <v>40574</v>
       </c>
     </row>
@@ -10738,7 +10738,7 @@
       <c r="C738" t="n">
         <v>85</v>
       </c>
-      <c r="D738" s="3" t="n">
+      <c s="3" r="D738" t="n">
         <v>40581</v>
       </c>
     </row>
@@ -10752,7 +10752,7 @@
       <c r="C739" t="n">
         <v>909</v>
       </c>
-      <c r="D739" s="3" t="n">
+      <c s="3" r="D739" t="n">
         <v>40588</v>
       </c>
     </row>
@@ -10766,7 +10766,7 @@
       <c r="C740" t="n">
         <v>697</v>
       </c>
-      <c r="D740" s="3" t="n">
+      <c s="3" r="D740" t="n">
         <v>40595</v>
       </c>
     </row>
@@ -10780,7 +10780,7 @@
       <c r="C741" t="n">
         <v>379</v>
       </c>
-      <c r="D741" s="3" t="n">
+      <c s="3" r="D741" t="n">
         <v>40602</v>
       </c>
     </row>
@@ -10794,7 +10794,7 @@
       <c r="C742" t="n">
         <v>876</v>
       </c>
-      <c r="D742" s="3" t="n">
+      <c s="3" r="D742" t="n">
         <v>40609</v>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       <c r="C743" t="n">
         <v>692</v>
       </c>
-      <c r="D743" s="3" t="n">
+      <c s="3" r="D743" t="n">
         <v>40616</v>
       </c>
     </row>
@@ -10822,7 +10822,7 @@
       <c r="C744" t="n">
         <v>504</v>
       </c>
-      <c r="D744" s="3" t="n">
+      <c s="3" r="D744" t="n">
         <v>40623</v>
       </c>
     </row>
@@ -10836,7 +10836,7 @@
       <c r="C745" t="n">
         <v>461</v>
       </c>
-      <c r="D745" s="3" t="n">
+      <c s="3" r="D745" t="n">
         <v>40630</v>
       </c>
     </row>
@@ -10850,7 +10850,7 @@
       <c r="C746" t="n">
         <v>587</v>
       </c>
-      <c r="D746" s="3" t="n">
+      <c s="3" r="D746" t="n">
         <v>40637</v>
       </c>
     </row>
@@ -10864,7 +10864,7 @@
       <c r="C747" t="n">
         <v>873</v>
       </c>
-      <c r="D747" s="3" t="n">
+      <c s="3" r="D747" t="n">
         <v>40644</v>
       </c>
     </row>
@@ -10878,7 +10878,7 @@
       <c r="C748" t="n">
         <v>756</v>
       </c>
-      <c r="D748" s="3" t="n">
+      <c s="3" r="D748" t="n">
         <v>40651</v>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
       <c r="C749" t="n">
         <v>515</v>
       </c>
-      <c r="D749" s="3" t="n">
+      <c s="3" r="D749" t="n">
         <v>40658</v>
       </c>
     </row>
@@ -10906,7 +10906,7 @@
       <c r="C750" t="n">
         <v>405</v>
       </c>
-      <c r="D750" s="3" t="n">
+      <c s="3" r="D750" t="n">
         <v>40665</v>
       </c>
     </row>
@@ -10920,7 +10920,7 @@
       <c r="C751" t="n">
         <v>903</v>
       </c>
-      <c r="D751" s="3" t="n">
+      <c s="3" r="D751" t="n">
         <v>40672</v>
       </c>
     </row>
@@ -10934,7 +10934,7 @@
       <c r="C752" t="n">
         <v>488</v>
       </c>
-      <c r="D752" s="3" t="n">
+      <c s="3" r="D752" t="n">
         <v>40679</v>
       </c>
     </row>
@@ -10948,7 +10948,7 @@
       <c r="C753" t="n">
         <v>819</v>
       </c>
-      <c r="D753" s="3" t="n">
+      <c s="3" r="D753" t="n">
         <v>40686</v>
       </c>
     </row>
@@ -10962,7 +10962,7 @@
       <c r="C754" t="n">
         <v>574</v>
       </c>
-      <c r="D754" s="3" t="n">
+      <c s="3" r="D754" t="n">
         <v>40693</v>
       </c>
     </row>
@@ -10976,7 +10976,7 @@
       <c r="C755" t="n">
         <v>945</v>
       </c>
-      <c r="D755" s="3" t="n">
+      <c s="3" r="D755" t="n">
         <v>40700</v>
       </c>
     </row>
@@ -10990,7 +10990,7 @@
       <c r="C756" t="n">
         <v>912</v>
       </c>
-      <c r="D756" s="3" t="n">
+      <c s="3" r="D756" t="n">
         <v>40707</v>
       </c>
     </row>
@@ -11004,7 +11004,7 @@
       <c r="C757" t="n">
         <v>209</v>
       </c>
-      <c r="D757" s="3" t="n">
+      <c s="3" r="D757" t="n">
         <v>40714</v>
       </c>
     </row>
@@ -11018,7 +11018,7 @@
       <c r="C758" t="n">
         <v>193</v>
       </c>
-      <c r="D758" s="3" t="n">
+      <c s="3" r="D758" t="n">
         <v>40721</v>
       </c>
     </row>
@@ -11032,7 +11032,7 @@
       <c r="C759" t="n">
         <v>973</v>
       </c>
-      <c r="D759" s="3" t="n">
+      <c s="3" r="D759" t="n">
         <v>40728</v>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
       <c r="C760" t="n">
         <v>703</v>
       </c>
-      <c r="D760" s="3" t="n">
+      <c s="3" r="D760" t="n">
         <v>40735</v>
       </c>
     </row>
@@ -11060,7 +11060,7 @@
       <c r="C761" t="n">
         <v>684</v>
       </c>
-      <c r="D761" s="3" t="n">
+      <c s="3" r="D761" t="n">
         <v>40742</v>
       </c>
     </row>
@@ -11074,7 +11074,7 @@
       <c r="C762" t="n">
         <v>325</v>
       </c>
-      <c r="D762" s="3" t="n">
+      <c s="3" r="D762" t="n">
         <v>40749</v>
       </c>
     </row>
@@ -11088,7 +11088,7 @@
       <c r="C763" t="n">
         <v>173</v>
       </c>
-      <c r="D763" s="3" t="n">
+      <c s="3" r="D763" t="n">
         <v>40756</v>
       </c>
     </row>
@@ -11102,7 +11102,7 @@
       <c r="C764" t="n">
         <v>600</v>
       </c>
-      <c r="D764" s="3" t="n">
+      <c s="3" r="D764" t="n">
         <v>40763</v>
       </c>
     </row>
@@ -11116,7 +11116,7 @@
       <c r="C765" t="n">
         <v>174</v>
       </c>
-      <c r="D765" s="3" t="n">
+      <c s="3" r="D765" t="n">
         <v>40770</v>
       </c>
     </row>
@@ -11130,7 +11130,7 @@
       <c r="C766" t="n">
         <v>858</v>
       </c>
-      <c r="D766" s="3" t="n">
+      <c s="3" r="D766" t="n">
         <v>40777</v>
       </c>
     </row>
@@ -11144,7 +11144,7 @@
       <c r="C767" t="n">
         <v>477</v>
       </c>
-      <c r="D767" s="3" t="n">
+      <c s="3" r="D767" t="n">
         <v>40784</v>
       </c>
     </row>
@@ -11158,7 +11158,7 @@
       <c r="C768" t="n">
         <v>245</v>
       </c>
-      <c r="D768" s="3" t="n">
+      <c s="3" r="D768" t="n">
         <v>40791</v>
       </c>
     </row>
@@ -11172,7 +11172,7 @@
       <c r="C769" t="n">
         <v>398</v>
       </c>
-      <c r="D769" s="3" t="n">
+      <c s="3" r="D769" t="n">
         <v>40798</v>
       </c>
     </row>
@@ -11186,7 +11186,7 @@
       <c r="C770" t="n">
         <v>171</v>
       </c>
-      <c r="D770" s="3" t="n">
+      <c s="3" r="D770" t="n">
         <v>40805</v>
       </c>
     </row>
@@ -11200,7 +11200,7 @@
       <c r="C771" t="n">
         <v>93</v>
       </c>
-      <c r="D771" s="3" t="n">
+      <c s="3" r="D771" t="n">
         <v>40812</v>
       </c>
     </row>
@@ -11214,7 +11214,7 @@
       <c r="C772" t="n">
         <v>937</v>
       </c>
-      <c r="D772" s="3" t="n">
+      <c s="3" r="D772" t="n">
         <v>40819</v>
       </c>
     </row>
@@ -11228,7 +11228,7 @@
       <c r="C773" t="n">
         <v>150</v>
       </c>
-      <c r="D773" s="3" t="n">
+      <c s="3" r="D773" t="n">
         <v>40826</v>
       </c>
     </row>
@@ -11242,7 +11242,7 @@
       <c r="C774" t="n">
         <v>359</v>
       </c>
-      <c r="D774" s="3" t="n">
+      <c s="3" r="D774" t="n">
         <v>40833</v>
       </c>
     </row>
@@ -11256,7 +11256,7 @@
       <c r="C775" t="n">
         <v>84</v>
       </c>
-      <c r="D775" s="3" t="n">
+      <c s="3" r="D775" t="n">
         <v>40840</v>
       </c>
     </row>
@@ -11270,7 +11270,7 @@
       <c r="C776" t="n">
         <v>721</v>
       </c>
-      <c r="D776" s="3" t="n">
+      <c s="3" r="D776" t="n">
         <v>40847</v>
       </c>
     </row>
@@ -11284,7 +11284,7 @@
       <c r="C777" t="n">
         <v>325</v>
       </c>
-      <c r="D777" s="3" t="n">
+      <c s="3" r="D777" t="n">
         <v>40854</v>
       </c>
     </row>
@@ -11298,7 +11298,7 @@
       <c r="C778" t="n">
         <v>956</v>
       </c>
-      <c r="D778" s="3" t="n">
+      <c s="3" r="D778" t="n">
         <v>40861</v>
       </c>
     </row>
@@ -11312,7 +11312,7 @@
       <c r="C779" t="n">
         <v>320</v>
       </c>
-      <c r="D779" s="3" t="n">
+      <c s="3" r="D779" t="n">
         <v>40868</v>
       </c>
     </row>
@@ -11326,7 +11326,7 @@
       <c r="C780" t="n">
         <v>791</v>
       </c>
-      <c r="D780" s="3" t="n">
+      <c s="3" r="D780" t="n">
         <v>40875</v>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       <c r="C781" t="n">
         <v>263</v>
       </c>
-      <c r="D781" s="3" t="n">
+      <c s="3" r="D781" t="n">
         <v>40882</v>
       </c>
     </row>
@@ -11354,7 +11354,7 @@
       <c r="C782" t="n">
         <v>598</v>
       </c>
-      <c r="D782" s="3" t="n">
+      <c s="3" r="D782" t="n">
         <v>40889</v>
       </c>
     </row>
@@ -11368,7 +11368,7 @@
       <c r="C783" t="n">
         <v>825</v>
       </c>
-      <c r="D783" s="3" t="n">
+      <c s="3" r="D783" t="n">
         <v>40896</v>
       </c>
     </row>
@@ -11382,7 +11382,7 @@
       <c r="C784" t="n">
         <v>348</v>
       </c>
-      <c r="D784" s="3" t="n">
+      <c s="3" r="D784" t="n">
         <v>40903</v>
       </c>
     </row>
@@ -11396,7 +11396,7 @@
       <c r="C785" t="n">
         <v>334</v>
       </c>
-      <c r="D785" s="3" t="n">
+      <c s="3" r="D785" t="n">
         <v>40910</v>
       </c>
     </row>
@@ -11410,7 +11410,7 @@
       <c r="C786" t="n">
         <v>727</v>
       </c>
-      <c r="D786" s="3" t="n">
+      <c s="3" r="D786" t="n">
         <v>40917</v>
       </c>
     </row>
@@ -11424,7 +11424,7 @@
       <c r="C787" t="n">
         <v>868</v>
       </c>
-      <c r="D787" s="3" t="n">
+      <c s="3" r="D787" t="n">
         <v>40924</v>
       </c>
     </row>
@@ -11438,7 +11438,7 @@
       <c r="C788" t="n">
         <v>673</v>
       </c>
-      <c r="D788" s="3" t="n">
+      <c s="3" r="D788" t="n">
         <v>40931</v>
       </c>
     </row>
@@ -11452,7 +11452,7 @@
       <c r="C789" t="n">
         <v>315</v>
       </c>
-      <c r="D789" s="3" t="n">
+      <c s="3" r="D789" t="n">
         <v>40938</v>
       </c>
     </row>
@@ -11466,7 +11466,7 @@
       <c r="C790" t="n">
         <v>58</v>
       </c>
-      <c r="D790" s="3" t="n">
+      <c s="3" r="D790" t="n">
         <v>40945</v>
       </c>
     </row>
@@ -11480,7 +11480,7 @@
       <c r="C791" t="n">
         <v>519</v>
       </c>
-      <c r="D791" s="3" t="n">
+      <c s="3" r="D791" t="n">
         <v>40952</v>
       </c>
     </row>
@@ -11494,7 +11494,7 @@
       <c r="C792" t="n">
         <v>245</v>
       </c>
-      <c r="D792" s="3" t="n">
+      <c s="3" r="D792" t="n">
         <v>40959</v>
       </c>
     </row>
@@ -11508,7 +11508,7 @@
       <c r="C793" t="n">
         <v>562</v>
       </c>
-      <c r="D793" s="3" t="n">
+      <c s="3" r="D793" t="n">
         <v>40966</v>
       </c>
     </row>
@@ -11522,7 +11522,7 @@
       <c r="C794" t="n">
         <v>92</v>
       </c>
-      <c r="D794" s="3" t="n">
+      <c s="3" r="D794" t="n">
         <v>40973</v>
       </c>
     </row>
@@ -11536,7 +11536,7 @@
       <c r="C795" t="n">
         <v>538</v>
       </c>
-      <c r="D795" s="3" t="n">
+      <c s="3" r="D795" t="n">
         <v>40980</v>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
       <c r="C796" t="n">
         <v>507</v>
       </c>
-      <c r="D796" s="3" t="n">
+      <c s="3" r="D796" t="n">
         <v>40987</v>
       </c>
     </row>
@@ -11564,7 +11564,7 @@
       <c r="C797" t="n">
         <v>929</v>
       </c>
-      <c r="D797" s="3" t="n">
+      <c s="3" r="D797" t="n">
         <v>40994</v>
       </c>
     </row>
@@ -11578,7 +11578,7 @@
       <c r="C798" t="n">
         <v>264</v>
       </c>
-      <c r="D798" s="3" t="n">
+      <c s="3" r="D798" t="n">
         <v>41001</v>
       </c>
     </row>
@@ -11592,7 +11592,7 @@
       <c r="C799" t="n">
         <v>370</v>
       </c>
-      <c r="D799" s="3" t="n">
+      <c s="3" r="D799" t="n">
         <v>41008</v>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       <c r="C800" t="n">
         <v>820</v>
       </c>
-      <c r="D800" s="3" t="n">
+      <c s="3" r="D800" t="n">
         <v>41015</v>
       </c>
     </row>
@@ -11620,7 +11620,7 @@
       <c r="C801" t="n">
         <v>658</v>
       </c>
-      <c r="D801" s="3" t="n">
+      <c s="3" r="D801" t="n">
         <v>41022</v>
       </c>
     </row>
@@ -11634,7 +11634,7 @@
       <c r="C802" t="n">
         <v>438</v>
       </c>
-      <c r="D802" s="3" t="n">
+      <c s="3" r="D802" t="n">
         <v>41029</v>
       </c>
     </row>
@@ -11648,7 +11648,7 @@
       <c r="C803" t="n">
         <v>498</v>
       </c>
-      <c r="D803" s="3" t="n">
+      <c s="3" r="D803" t="n">
         <v>41036</v>
       </c>
     </row>
@@ -11662,7 +11662,7 @@
       <c r="C804" t="n">
         <v>277</v>
       </c>
-      <c r="D804" s="3" t="n">
+      <c s="3" r="D804" t="n">
         <v>41043</v>
       </c>
     </row>
@@ -11676,7 +11676,7 @@
       <c r="C805" t="n">
         <v>870</v>
       </c>
-      <c r="D805" s="3" t="n">
+      <c s="3" r="D805" t="n">
         <v>41050</v>
       </c>
     </row>
@@ -11690,7 +11690,7 @@
       <c r="C806" t="n">
         <v>291</v>
       </c>
-      <c r="D806" s="3" t="n">
+      <c s="3" r="D806" t="n">
         <v>41057</v>
       </c>
     </row>
@@ -11704,7 +11704,7 @@
       <c r="C807" t="n">
         <v>470</v>
       </c>
-      <c r="D807" s="3" t="n">
+      <c s="3" r="D807" t="n">
         <v>41064</v>
       </c>
     </row>
@@ -11718,7 +11718,7 @@
       <c r="C808" t="n">
         <v>169</v>
       </c>
-      <c r="D808" s="3" t="n">
+      <c s="3" r="D808" t="n">
         <v>41071</v>
       </c>
     </row>
@@ -11732,7 +11732,7 @@
       <c r="C809" t="n">
         <v>616</v>
       </c>
-      <c r="D809" s="3" t="n">
+      <c s="3" r="D809" t="n">
         <v>41078</v>
       </c>
     </row>
@@ -11746,7 +11746,7 @@
       <c r="C810" t="n">
         <v>995</v>
       </c>
-      <c r="D810" s="3" t="n">
+      <c s="3" r="D810" t="n">
         <v>41085</v>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       <c r="C811" t="n">
         <v>869</v>
       </c>
-      <c r="D811" s="3" t="n">
+      <c s="3" r="D811" t="n">
         <v>41092</v>
       </c>
     </row>
@@ -11774,7 +11774,7 @@
       <c r="C812" t="n">
         <v>762</v>
       </c>
-      <c r="D812" s="3" t="n">
+      <c s="3" r="D812" t="n">
         <v>41099</v>
       </c>
     </row>
@@ -11788,7 +11788,7 @@
       <c r="C813" t="n">
         <v>153</v>
       </c>
-      <c r="D813" s="3" t="n">
+      <c s="3" r="D813" t="n">
         <v>41106</v>
       </c>
     </row>
@@ -11802,7 +11802,7 @@
       <c r="C814" t="n">
         <v>183</v>
       </c>
-      <c r="D814" s="3" t="n">
+      <c s="3" r="D814" t="n">
         <v>41113</v>
       </c>
     </row>
@@ -11816,7 +11816,7 @@
       <c r="C815" t="n">
         <v>284</v>
       </c>
-      <c r="D815" s="3" t="n">
+      <c s="3" r="D815" t="n">
         <v>41120</v>
       </c>
     </row>
@@ -11830,7 +11830,7 @@
       <c r="C816" t="n">
         <v>729</v>
       </c>
-      <c r="D816" s="3" t="n">
+      <c s="3" r="D816" t="n">
         <v>41127</v>
       </c>
     </row>
@@ -11844,7 +11844,7 @@
       <c r="C817" t="n">
         <v>319</v>
       </c>
-      <c r="D817" s="3" t="n">
+      <c s="3" r="D817" t="n">
         <v>41134</v>
       </c>
     </row>
@@ -11858,7 +11858,7 @@
       <c r="C818" t="n">
         <v>147</v>
       </c>
-      <c r="D818" s="3" t="n">
+      <c s="3" r="D818" t="n">
         <v>41141</v>
       </c>
     </row>
@@ -11872,7 +11872,7 @@
       <c r="C819" t="n">
         <v>92</v>
       </c>
-      <c r="D819" s="3" t="n">
+      <c s="3" r="D819" t="n">
         <v>41148</v>
       </c>
     </row>
@@ -11886,7 +11886,7 @@
       <c r="C820" t="n">
         <v>183</v>
       </c>
-      <c r="D820" s="3" t="n">
+      <c s="3" r="D820" t="n">
         <v>41155</v>
       </c>
     </row>
@@ -11900,7 +11900,7 @@
       <c r="C821" t="n">
         <v>302</v>
       </c>
-      <c r="D821" s="3" t="n">
+      <c s="3" r="D821" t="n">
         <v>41162</v>
       </c>
     </row>
@@ -11914,7 +11914,7 @@
       <c r="C822" t="n">
         <v>51</v>
       </c>
-      <c r="D822" s="3" t="n">
+      <c s="3" r="D822" t="n">
         <v>41169</v>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
       <c r="C823" t="n">
         <v>888</v>
       </c>
-      <c r="D823" s="3" t="n">
+      <c s="3" r="D823" t="n">
         <v>41176</v>
       </c>
     </row>
@@ -11942,7 +11942,7 @@
       <c r="C824" t="n">
         <v>547</v>
       </c>
-      <c r="D824" s="3" t="n">
+      <c s="3" r="D824" t="n">
         <v>41183</v>
       </c>
     </row>
@@ -11956,7 +11956,7 @@
       <c r="C825" t="n">
         <v>862</v>
       </c>
-      <c r="D825" s="3" t="n">
+      <c s="3" r="D825" t="n">
         <v>41190</v>
       </c>
     </row>
@@ -11970,7 +11970,7 @@
       <c r="C826" t="n">
         <v>954</v>
       </c>
-      <c r="D826" s="3" t="n">
+      <c s="3" r="D826" t="n">
         <v>41197</v>
       </c>
     </row>
@@ -11984,7 +11984,7 @@
       <c r="C827" t="n">
         <v>573</v>
       </c>
-      <c r="D827" s="3" t="n">
+      <c s="3" r="D827" t="n">
         <v>41204</v>
       </c>
     </row>
@@ -11998,7 +11998,7 @@
       <c r="C828" t="n">
         <v>162</v>
       </c>
-      <c r="D828" s="3" t="n">
+      <c s="3" r="D828" t="n">
         <v>41211</v>
       </c>
     </row>
@@ -12012,7 +12012,7 @@
       <c r="C829" t="n">
         <v>397</v>
       </c>
-      <c r="D829" s="3" t="n">
+      <c s="3" r="D829" t="n">
         <v>41218</v>
       </c>
     </row>
@@ -12026,7 +12026,7 @@
       <c r="C830" t="n">
         <v>775</v>
       </c>
-      <c r="D830" s="3" t="n">
+      <c s="3" r="D830" t="n">
         <v>41225</v>
       </c>
     </row>
@@ -12040,7 +12040,7 @@
       <c r="C831" t="n">
         <v>409</v>
       </c>
-      <c r="D831" s="3" t="n">
+      <c s="3" r="D831" t="n">
         <v>41232</v>
       </c>
     </row>
@@ -12054,7 +12054,7 @@
       <c r="C832" t="n">
         <v>768</v>
       </c>
-      <c r="D832" s="3" t="n">
+      <c s="3" r="D832" t="n">
         <v>41239</v>
       </c>
     </row>
@@ -12068,7 +12068,7 @@
       <c r="C833" t="n">
         <v>80</v>
       </c>
-      <c r="D833" s="3" t="n">
+      <c s="3" r="D833" t="n">
         <v>41246</v>
       </c>
     </row>
@@ -12082,7 +12082,7 @@
       <c r="C834" t="n">
         <v>516</v>
       </c>
-      <c r="D834" s="3" t="n">
+      <c s="3" r="D834" t="n">
         <v>41253</v>
       </c>
     </row>
@@ -12096,7 +12096,7 @@
       <c r="C835" t="n">
         <v>646</v>
       </c>
-      <c r="D835" s="3" t="n">
+      <c s="3" r="D835" t="n">
         <v>41260</v>
       </c>
     </row>
@@ -12110,7 +12110,7 @@
       <c r="C836" t="n">
         <v>606</v>
       </c>
-      <c r="D836" s="3" t="n">
+      <c s="3" r="D836" t="n">
         <v>41267</v>
       </c>
     </row>
@@ -12124,7 +12124,7 @@
       <c r="C837" t="n">
         <v>291</v>
       </c>
-      <c r="D837" s="3" t="n">
+      <c s="3" r="D837" t="n">
         <v>41274</v>
       </c>
     </row>
